--- a/qr_testing.xlsx
+++ b/qr_testing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS TUF\Documents\GitHub\navit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78418AB2-59A9-40F2-88DD-D69BC45CEBE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6E2FB94-F5B8-4E30-B366-1934A17C80E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="QR code testing" sheetId="4" r:id="rId1"/>
@@ -1085,13 +1085,13 @@
       <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.7109375" defaultRowHeight="66" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="13.6640625" defaultRowHeight="66" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="18.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="13.7109375" style="3"/>
+    <col min="1" max="3" width="18.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="13.6640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="4" customFormat="1" ht="21" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -1107,7 +1107,7 @@
       </c>
       <c r="F1" s="9"/>
     </row>
-    <row r="2" spans="1:6" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="66" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
         <v>30.2731289</v>
       </c>
@@ -1127,7 +1127,7 @@
         <v>ubuntu lab</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="66" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -1141,7 +1141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="66" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -1155,7 +1155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="66" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -1169,7 +1169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="66" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -1196,21 +1196,21 @@
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="4" customWidth="1"/>
-    <col min="4" max="4" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.7109375" customWidth="1"/>
-    <col min="7" max="7" width="24.28515625" customWidth="1"/>
+    <col min="4" max="4" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.6640625" customWidth="1"/>
+    <col min="7" max="7" width="24.33203125" customWidth="1"/>
     <col min="8" max="8" width="4" customWidth="1"/>
-    <col min="9" max="9" width="33.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="33.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.33203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>5</v>
       </c>
@@ -1237,7 +1237,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="10">
         <v>30.2731289</v>
       </c>
@@ -1273,7 +1273,7 @@
         <v>2.11</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="10">
         <v>30.273254099999999</v>
       </c>
@@ -1309,7 +1309,7 @@
         <v>8.15</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="10">
         <v>30.273358200000001</v>
       </c>
@@ -1345,7 +1345,7 @@
         <v>11.29</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="10">
         <v>30.2734329</v>
       </c>
@@ -1391,22 +1391,22 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05C9672D-7EBA-4052-A1F6-6CDE915680D2}">
-  <dimension ref="A1:G118"/>
+  <dimension ref="A1:G169"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="A119" sqref="A119:F169"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.5703125" customWidth="1"/>
+    <col min="2" max="3" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.5546875" customWidth="1"/>
     <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>13</v>
       </c>
@@ -1427,7 +1427,7 @@
       </c>
       <c r="G1" s="17"/>
     </row>
-    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="10">
         <v>1</v>
       </c>
@@ -1451,7 +1451,7 @@
       </c>
       <c r="G2" s="18"/>
     </row>
-    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="10">
         <v>2</v>
       </c>
@@ -1475,7 +1475,7 @@
       </c>
       <c r="G3" s="18"/>
     </row>
-    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="10">
         <v>3</v>
       </c>
@@ -1499,7 +1499,7 @@
       </c>
       <c r="G4" s="18"/>
     </row>
-    <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="10">
         <v>4</v>
       </c>
@@ -1523,7 +1523,7 @@
       </c>
       <c r="G5" s="18"/>
     </row>
-    <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="10">
         <v>5</v>
       </c>
@@ -1547,7 +1547,7 @@
       </c>
       <c r="G6" s="18"/>
     </row>
-    <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="10">
         <v>6</v>
       </c>
@@ -1571,7 +1571,7 @@
       </c>
       <c r="G7" s="18"/>
     </row>
-    <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="10">
         <v>7</v>
       </c>
@@ -1595,7 +1595,7 @@
       </c>
       <c r="G8" s="18"/>
     </row>
-    <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="10">
         <v>8</v>
       </c>
@@ -1619,7 +1619,7 @@
       </c>
       <c r="G9" s="18"/>
     </row>
-    <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="10">
         <v>9</v>
       </c>
@@ -1643,7 +1643,7 @@
       </c>
       <c r="G10" s="18"/>
     </row>
-    <row r="11" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="10">
         <v>10</v>
       </c>
@@ -1667,7 +1667,7 @@
       </c>
       <c r="G11" s="18"/>
     </row>
-    <row r="12" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="10">
         <v>11</v>
       </c>
@@ -1691,7 +1691,7 @@
       </c>
       <c r="G12" s="18"/>
     </row>
-    <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="10">
         <v>12</v>
       </c>
@@ -1715,7 +1715,7 @@
       </c>
       <c r="G13" s="18"/>
     </row>
-    <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="10">
         <v>13</v>
       </c>
@@ -1739,7 +1739,7 @@
       </c>
       <c r="G14" s="18"/>
     </row>
-    <row r="15" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="10">
         <v>14</v>
       </c>
@@ -1763,7 +1763,7 @@
       </c>
       <c r="G15" s="18"/>
     </row>
-    <row r="16" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="10">
         <v>15</v>
       </c>
@@ -1787,7 +1787,7 @@
       </c>
       <c r="G16" s="18"/>
     </row>
-    <row r="17" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="10">
         <v>16</v>
       </c>
@@ -1811,7 +1811,7 @@
       </c>
       <c r="G17" s="18"/>
     </row>
-    <row r="18" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="10">
         <v>17</v>
       </c>
@@ -1835,7 +1835,7 @@
       </c>
       <c r="G18" s="18"/>
     </row>
-    <row r="19" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="10">
         <v>18</v>
       </c>
@@ -1859,7 +1859,7 @@
       </c>
       <c r="G19" s="18"/>
     </row>
-    <row r="20" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="10">
         <v>19</v>
       </c>
@@ -1883,7 +1883,7 @@
       </c>
       <c r="G20" s="18"/>
     </row>
-    <row r="21" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="10">
         <v>20</v>
       </c>
@@ -1907,7 +1907,7 @@
       </c>
       <c r="G21" s="18"/>
     </row>
-    <row r="22" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="10">
         <v>21</v>
       </c>
@@ -1931,7 +1931,7 @@
       </c>
       <c r="G22" s="18"/>
     </row>
-    <row r="23" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="10">
         <v>22</v>
       </c>
@@ -1955,7 +1955,7 @@
       </c>
       <c r="G23" s="18"/>
     </row>
-    <row r="24" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="10">
         <v>23</v>
       </c>
@@ -1979,7 +1979,7 @@
       </c>
       <c r="G24" s="18"/>
     </row>
-    <row r="25" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="10">
         <v>24</v>
       </c>
@@ -2003,7 +2003,7 @@
       </c>
       <c r="G25" s="18"/>
     </row>
-    <row r="26" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="10">
         <v>25</v>
       </c>
@@ -2027,7 +2027,7 @@
       </c>
       <c r="G26" s="18"/>
     </row>
-    <row r="27" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="10">
         <v>26</v>
       </c>
@@ -2051,7 +2051,7 @@
       </c>
       <c r="G27" s="18"/>
     </row>
-    <row r="28" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="10">
         <v>27</v>
       </c>
@@ -2075,7 +2075,7 @@
       </c>
       <c r="G28" s="18"/>
     </row>
-    <row r="29" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="10">
         <v>28</v>
       </c>
@@ -2099,7 +2099,7 @@
       </c>
       <c r="G29" s="18"/>
     </row>
-    <row r="30" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="10">
         <v>29</v>
       </c>
@@ -2123,7 +2123,7 @@
       </c>
       <c r="G30" s="18"/>
     </row>
-    <row r="31" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="10">
         <v>30</v>
       </c>
@@ -2147,7 +2147,7 @@
       </c>
       <c r="G31" s="18"/>
     </row>
-    <row r="32" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="10">
         <v>31</v>
       </c>
@@ -2171,7 +2171,7 @@
       </c>
       <c r="G32" s="18"/>
     </row>
-    <row r="33" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="10">
         <v>32</v>
       </c>
@@ -2195,7 +2195,7 @@
       </c>
       <c r="G33" s="18"/>
     </row>
-    <row r="34" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="10">
         <v>33</v>
       </c>
@@ -2219,7 +2219,7 @@
       </c>
       <c r="G34" s="18"/>
     </row>
-    <row r="35" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="10">
         <v>34</v>
       </c>
@@ -2243,7 +2243,7 @@
       </c>
       <c r="G35" s="18"/>
     </row>
-    <row r="36" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="10">
         <v>35</v>
       </c>
@@ -2267,7 +2267,7 @@
       </c>
       <c r="G36" s="18"/>
     </row>
-    <row r="37" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="10">
         <v>36</v>
       </c>
@@ -2291,7 +2291,7 @@
       </c>
       <c r="G37" s="18"/>
     </row>
-    <row r="38" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="10">
         <v>37</v>
       </c>
@@ -2315,7 +2315,7 @@
       </c>
       <c r="G38" s="18"/>
     </row>
-    <row r="39" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="10">
         <v>38</v>
       </c>
@@ -2339,7 +2339,7 @@
       </c>
       <c r="G39" s="18"/>
     </row>
-    <row r="40" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="10">
         <v>39</v>
       </c>
@@ -2363,7 +2363,7 @@
       </c>
       <c r="G40" s="18"/>
     </row>
-    <row r="41" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="10">
         <v>40</v>
       </c>
@@ -2387,7 +2387,7 @@
       </c>
       <c r="G41" s="18"/>
     </row>
-    <row r="42" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="10">
         <v>41</v>
       </c>
@@ -2411,7 +2411,7 @@
       </c>
       <c r="G42" s="18"/>
     </row>
-    <row r="43" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="10">
         <v>42</v>
       </c>
@@ -2435,7 +2435,7 @@
       </c>
       <c r="G43" s="18"/>
     </row>
-    <row r="44" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="10">
         <v>43</v>
       </c>
@@ -2459,7 +2459,7 @@
       </c>
       <c r="G44" s="18"/>
     </row>
-    <row r="45" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" s="10">
         <v>44</v>
       </c>
@@ -2483,7 +2483,7 @@
       </c>
       <c r="G45" s="18"/>
     </row>
-    <row r="46" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" s="10">
         <v>45</v>
       </c>
@@ -2507,7 +2507,7 @@
       </c>
       <c r="G46" s="18"/>
     </row>
-    <row r="47" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" s="10">
         <v>46</v>
       </c>
@@ -2531,7 +2531,7 @@
       </c>
       <c r="G47" s="18"/>
     </row>
-    <row r="48" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="10">
         <v>47</v>
       </c>
@@ -2555,7 +2555,7 @@
       </c>
       <c r="G48" s="18"/>
     </row>
-    <row r="49" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" s="10">
         <v>48</v>
       </c>
@@ -2579,7 +2579,7 @@
       </c>
       <c r="G49" s="18"/>
     </row>
-    <row r="50" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50" s="10">
         <v>49</v>
       </c>
@@ -2603,7 +2603,7 @@
       </c>
       <c r="G50" s="18"/>
     </row>
-    <row r="51" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A51" s="10">
         <v>50</v>
       </c>
@@ -2627,7 +2627,7 @@
       </c>
       <c r="G51" s="18"/>
     </row>
-    <row r="52" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52" s="10">
         <v>51</v>
       </c>
@@ -2651,7 +2651,7 @@
       </c>
       <c r="G52" s="18"/>
     </row>
-    <row r="53" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A53" s="10">
         <v>52</v>
       </c>
@@ -2675,7 +2675,7 @@
       </c>
       <c r="G53" s="18"/>
     </row>
-    <row r="54" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A54" s="10">
         <v>53</v>
       </c>
@@ -2699,7 +2699,7 @@
       </c>
       <c r="G54" s="18"/>
     </row>
-    <row r="55" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A55" s="10">
         <v>54</v>
       </c>
@@ -2723,7 +2723,7 @@
       </c>
       <c r="G55" s="18"/>
     </row>
-    <row r="56" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A56" s="10">
         <v>55</v>
       </c>
@@ -2747,7 +2747,7 @@
       </c>
       <c r="G56" s="18"/>
     </row>
-    <row r="57" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A57" s="10">
         <v>56</v>
       </c>
@@ -2771,7 +2771,7 @@
       </c>
       <c r="G57" s="18"/>
     </row>
-    <row r="58" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A58" s="10">
         <v>57</v>
       </c>
@@ -2795,7 +2795,7 @@
       </c>
       <c r="G58" s="18"/>
     </row>
-    <row r="59" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A59" s="10">
         <v>58</v>
       </c>
@@ -2819,7 +2819,7 @@
       </c>
       <c r="G59" s="18"/>
     </row>
-    <row r="60" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A60" s="10">
         <v>59</v>
       </c>
@@ -2843,7 +2843,7 @@
       </c>
       <c r="G60" s="18"/>
     </row>
-    <row r="61" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A61" s="10">
         <v>60</v>
       </c>
@@ -2867,7 +2867,7 @@
       </c>
       <c r="G61" s="18"/>
     </row>
-    <row r="62" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A62" s="10">
         <v>61</v>
       </c>
@@ -2891,7 +2891,7 @@
       </c>
       <c r="G62" s="18"/>
     </row>
-    <row r="63" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A63" s="10">
         <v>62</v>
       </c>
@@ -2915,7 +2915,7 @@
       </c>
       <c r="G63" s="18"/>
     </row>
-    <row r="64" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A64" s="10">
         <v>63</v>
       </c>
@@ -2939,7 +2939,7 @@
       </c>
       <c r="G64" s="18"/>
     </row>
-    <row r="65" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A65" s="10">
         <v>64</v>
       </c>
@@ -2963,7 +2963,7 @@
       </c>
       <c r="G65" s="18"/>
     </row>
-    <row r="66" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A66" s="10">
         <v>65</v>
       </c>
@@ -2987,7 +2987,7 @@
       </c>
       <c r="G66" s="18"/>
     </row>
-    <row r="67" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A67" s="10">
         <v>66</v>
       </c>
@@ -2998,7 +2998,7 @@
         <v>77.999546836479993</v>
       </c>
       <c r="D67" s="10">
-        <f t="shared" ref="D67:D118" si="7">A67</f>
+        <f t="shared" ref="D67:D129" si="7">A67</f>
         <v>66</v>
       </c>
       <c r="E67" s="10">
@@ -3011,7 +3011,7 @@
       </c>
       <c r="G67" s="18"/>
     </row>
-    <row r="68" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A68" s="10">
         <v>67</v>
       </c>
@@ -3035,7 +3035,7 @@
       </c>
       <c r="G68" s="18"/>
     </row>
-    <row r="69" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A69" s="10">
         <v>68</v>
       </c>
@@ -3059,7 +3059,7 @@
       </c>
       <c r="G69" s="18"/>
     </row>
-    <row r="70" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A70" s="10">
         <v>69</v>
       </c>
@@ -3083,7 +3083,7 @@
       </c>
       <c r="G70" s="18"/>
     </row>
-    <row r="71" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A71" s="10">
         <v>70</v>
       </c>
@@ -3107,7 +3107,7 @@
       </c>
       <c r="G71" s="18"/>
     </row>
-    <row r="72" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A72" s="10">
         <v>71</v>
       </c>
@@ -3131,7 +3131,7 @@
       </c>
       <c r="G72" s="18"/>
     </row>
-    <row r="73" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A73" s="10">
         <v>72</v>
       </c>
@@ -3155,7 +3155,7 @@
       </c>
       <c r="G73" s="18"/>
     </row>
-    <row r="74" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A74" s="10">
         <v>73</v>
       </c>
@@ -3179,7 +3179,7 @@
       </c>
       <c r="G74" s="18"/>
     </row>
-    <row r="75" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A75" s="10">
         <v>74</v>
       </c>
@@ -3203,7 +3203,7 @@
       </c>
       <c r="G75" s="18"/>
     </row>
-    <row r="76" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A76" s="10">
         <v>75</v>
       </c>
@@ -3227,7 +3227,7 @@
       </c>
       <c r="G76" s="18"/>
     </row>
-    <row r="77" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A77" s="10">
         <v>76</v>
       </c>
@@ -3251,7 +3251,7 @@
       </c>
       <c r="G77" s="18"/>
     </row>
-    <row r="78" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A78" s="10">
         <v>77</v>
       </c>
@@ -3275,7 +3275,7 @@
       </c>
       <c r="G78" s="18"/>
     </row>
-    <row r="79" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A79" s="10">
         <v>78</v>
       </c>
@@ -3299,7 +3299,7 @@
       </c>
       <c r="G79" s="18"/>
     </row>
-    <row r="80" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A80" s="10">
         <v>79</v>
       </c>
@@ -3323,7 +3323,7 @@
       </c>
       <c r="G80" s="18"/>
     </row>
-    <row r="81" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A81" s="10">
         <v>80</v>
       </c>
@@ -3347,7 +3347,7 @@
       </c>
       <c r="G81" s="18"/>
     </row>
-    <row r="82" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A82" s="10">
         <v>81</v>
       </c>
@@ -3371,7 +3371,7 @@
       </c>
       <c r="G82" s="18"/>
     </row>
-    <row r="83" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A83" s="10">
         <v>82</v>
       </c>
@@ -3395,7 +3395,7 @@
       </c>
       <c r="G83" s="18"/>
     </row>
-    <row r="84" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A84" s="10">
         <v>83</v>
       </c>
@@ -3419,7 +3419,7 @@
       </c>
       <c r="G84" s="18"/>
     </row>
-    <row r="85" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A85" s="10">
         <v>84</v>
       </c>
@@ -3443,7 +3443,7 @@
       </c>
       <c r="G85" s="18"/>
     </row>
-    <row r="86" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A86" s="10">
         <v>85</v>
       </c>
@@ -3467,7 +3467,7 @@
       </c>
       <c r="G86" s="18"/>
     </row>
-    <row r="87" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A87" s="10">
         <v>86</v>
       </c>
@@ -3491,7 +3491,7 @@
       </c>
       <c r="G87" s="18"/>
     </row>
-    <row r="88" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A88" s="10">
         <v>87</v>
       </c>
@@ -3515,7 +3515,7 @@
       </c>
       <c r="G88" s="18"/>
     </row>
-    <row r="89" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A89" s="10">
         <v>88</v>
       </c>
@@ -3539,7 +3539,7 @@
       </c>
       <c r="G89" s="18"/>
     </row>
-    <row r="90" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A90" s="10">
         <v>89</v>
       </c>
@@ -3563,7 +3563,7 @@
       </c>
       <c r="G90" s="18"/>
     </row>
-    <row r="91" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A91" s="10">
         <v>90</v>
       </c>
@@ -3587,7 +3587,7 @@
       </c>
       <c r="G91" s="18"/>
     </row>
-    <row r="92" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A92" s="10">
         <v>91</v>
       </c>
@@ -3611,7 +3611,7 @@
       </c>
       <c r="G92" s="18"/>
     </row>
-    <row r="93" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A93" s="10">
         <v>92</v>
       </c>
@@ -3635,7 +3635,7 @@
       </c>
       <c r="G93" s="18"/>
     </row>
-    <row r="94" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A94" s="10">
         <v>93</v>
       </c>
@@ -3659,7 +3659,7 @@
       </c>
       <c r="G94" s="18"/>
     </row>
-    <row r="95" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A95" s="10">
         <v>94</v>
       </c>
@@ -3683,7 +3683,7 @@
       </c>
       <c r="G95" s="18"/>
     </row>
-    <row r="96" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A96" s="10">
         <v>95</v>
       </c>
@@ -3707,7 +3707,7 @@
       </c>
       <c r="G96" s="18"/>
     </row>
-    <row r="97" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A97" s="10">
         <v>96</v>
       </c>
@@ -3731,7 +3731,7 @@
       </c>
       <c r="G97" s="18"/>
     </row>
-    <row r="98" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A98" s="10">
         <v>97</v>
       </c>
@@ -3755,7 +3755,7 @@
       </c>
       <c r="G98" s="18"/>
     </row>
-    <row r="99" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A99" s="10">
         <v>98</v>
       </c>
@@ -3779,7 +3779,7 @@
       </c>
       <c r="G99" s="18"/>
     </row>
-    <row r="100" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A100" s="10">
         <v>99</v>
       </c>
@@ -3803,7 +3803,7 @@
       </c>
       <c r="G100" s="18"/>
     </row>
-    <row r="101" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A101" s="10">
         <v>100</v>
       </c>
@@ -3827,7 +3827,7 @@
       </c>
       <c r="G101" s="18"/>
     </row>
-    <row r="102" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A102" s="10">
         <v>101</v>
       </c>
@@ -3851,7 +3851,7 @@
       </c>
       <c r="G102" s="18"/>
     </row>
-    <row r="103" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A103" s="10">
         <v>102</v>
       </c>
@@ -3875,7 +3875,7 @@
       </c>
       <c r="G103" s="18"/>
     </row>
-    <row r="104" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A104" s="10">
         <v>103</v>
       </c>
@@ -3899,7 +3899,7 @@
       </c>
       <c r="G104" s="18"/>
     </row>
-    <row r="105" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A105" s="10">
         <v>104</v>
       </c>
@@ -3923,7 +3923,7 @@
       </c>
       <c r="G105" s="18"/>
     </row>
-    <row r="106" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A106" s="10">
         <v>105</v>
       </c>
@@ -3947,7 +3947,7 @@
       </c>
       <c r="G106" s="18"/>
     </row>
-    <row r="107" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A107" s="10">
         <v>106</v>
       </c>
@@ -3971,7 +3971,7 @@
       </c>
       <c r="G107" s="18"/>
     </row>
-    <row r="108" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A108" s="10">
         <v>107</v>
       </c>
@@ -3995,7 +3995,7 @@
       </c>
       <c r="G108" s="18"/>
     </row>
-    <row r="109" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A109" s="10">
         <v>108</v>
       </c>
@@ -4019,7 +4019,7 @@
       </c>
       <c r="G109" s="18"/>
     </row>
-    <row r="110" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A110" s="10">
         <v>109</v>
       </c>
@@ -4043,7 +4043,7 @@
       </c>
       <c r="G110" s="18"/>
     </row>
-    <row r="111" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A111" s="10">
         <v>110</v>
       </c>
@@ -4067,7 +4067,7 @@
       </c>
       <c r="G111" s="18"/>
     </row>
-    <row r="112" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A112" s="10">
         <v>111</v>
       </c>
@@ -4091,7 +4091,7 @@
       </c>
       <c r="G112" s="18"/>
     </row>
-    <row r="113" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A113" s="10">
         <v>112</v>
       </c>
@@ -4115,7 +4115,7 @@
       </c>
       <c r="G113" s="18"/>
     </row>
-    <row r="114" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A114" s="10">
         <v>113</v>
       </c>
@@ -4139,7 +4139,7 @@
       </c>
       <c r="G114" s="18"/>
     </row>
-    <row r="115" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A115" s="10">
         <v>114</v>
       </c>
@@ -4163,7 +4163,7 @@
       </c>
       <c r="G115" s="18"/>
     </row>
-    <row r="116" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A116" s="10">
         <v>115</v>
       </c>
@@ -4187,7 +4187,7 @@
       </c>
       <c r="G116" s="18"/>
     </row>
-    <row r="117" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A117" s="10">
         <v>116</v>
       </c>
@@ -4211,7 +4211,7 @@
       </c>
       <c r="G117" s="18"/>
     </row>
-    <row r="118" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A118" s="10">
         <v>117</v>
       </c>
@@ -4234,6 +4234,1179 @@
         <v>1.3613538966375407</v>
       </c>
       <c r="G118" s="18"/>
+    </row>
+    <row r="119" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <v>160</v>
+      </c>
+      <c r="B119">
+        <v>30.27393559003</v>
+      </c>
+      <c r="C119">
+        <v>77.999507338520004</v>
+      </c>
+      <c r="D119" s="10">
+        <f t="shared" si="7"/>
+        <v>160</v>
+      </c>
+      <c r="E119" s="10">
+        <f t="shared" ref="E119:E169" si="10">B119*PI()/180</f>
+        <v>0.52837985358271566</v>
+      </c>
+      <c r="F119" s="16">
+        <f t="shared" ref="F119:F169" si="11">C119*PI()/180</f>
+        <v>1.3613482179906533</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <v>130</v>
+      </c>
+      <c r="B120">
+        <v>30.272767850649998</v>
+      </c>
+      <c r="C120">
+        <v>77.999945842670002</v>
+      </c>
+      <c r="D120" s="10">
+        <f t="shared" si="7"/>
+        <v>130</v>
+      </c>
+      <c r="E120" s="10">
+        <f t="shared" si="10"/>
+        <v>0.52835947268572947</v>
+      </c>
+      <c r="F120" s="16">
+        <f t="shared" si="11"/>
+        <v>1.3613558713318545</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <v>161</v>
+      </c>
+      <c r="B121">
+        <v>30.273660838160001</v>
+      </c>
+      <c r="C121">
+        <v>77.999191192859996</v>
+      </c>
+      <c r="D121" s="10">
+        <f t="shared" si="7"/>
+        <v>161</v>
+      </c>
+      <c r="E121" s="10">
+        <f t="shared" si="10"/>
+        <v>0.52837505825795816</v>
+      </c>
+      <c r="F121" s="16">
+        <f t="shared" si="11"/>
+        <v>1.3613427002079703</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <v>139</v>
+      </c>
+      <c r="B122">
+        <v>30.27322126084</v>
+      </c>
+      <c r="C122">
+        <v>78.000749812609996</v>
+      </c>
+      <c r="D122" s="10">
+        <f t="shared" si="7"/>
+        <v>139</v>
+      </c>
+      <c r="E122" s="10">
+        <f t="shared" si="10"/>
+        <v>0.52836738618640711</v>
+      </c>
+      <c r="F122" s="16">
+        <f t="shared" si="11"/>
+        <v>1.3613699032543944</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A123">
+        <v>154</v>
+      </c>
+      <c r="B123">
+        <v>30.273450997560001</v>
+      </c>
+      <c r="C123">
+        <v>78.000550566759998</v>
+      </c>
+      <c r="D123" s="10">
+        <f t="shared" si="7"/>
+        <v>154</v>
+      </c>
+      <c r="E123" s="10">
+        <f t="shared" si="10"/>
+        <v>0.52837139584858384</v>
+      </c>
+      <c r="F123" s="16">
+        <f t="shared" si="11"/>
+        <v>1.3613664257582909</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A124">
+        <v>124</v>
+      </c>
+      <c r="B124">
+        <v>30.27304733691</v>
+      </c>
+      <c r="C124">
+        <v>77.999516736659999</v>
+      </c>
+      <c r="D124" s="10">
+        <f t="shared" si="7"/>
+        <v>124</v>
+      </c>
+      <c r="E124" s="10">
+        <f t="shared" si="10"/>
+        <v>0.52836435064118059</v>
+      </c>
+      <c r="F124" s="16">
+        <f t="shared" si="11"/>
+        <v>1.3613483820191399</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A125">
+        <v>165</v>
+      </c>
+      <c r="B125">
+        <v>30.273204893719999</v>
+      </c>
+      <c r="C125">
+        <v>77.999205942670002</v>
+      </c>
+      <c r="D125" s="10">
+        <f t="shared" si="7"/>
+        <v>165</v>
+      </c>
+      <c r="E125" s="10">
+        <f t="shared" si="10"/>
+        <v>0.528367100526274</v>
+      </c>
+      <c r="F125" s="16">
+        <f t="shared" si="11"/>
+        <v>1.361342957640719</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A126">
+        <v>159</v>
+      </c>
+      <c r="B126">
+        <v>30.27399599372</v>
+      </c>
+      <c r="C126">
+        <v>77.999576842669995</v>
+      </c>
+      <c r="D126" s="10">
+        <f t="shared" si="7"/>
+        <v>159</v>
+      </c>
+      <c r="E126" s="10">
+        <f t="shared" si="10"/>
+        <v>0.52838090782598657</v>
+      </c>
+      <c r="F126" s="16">
+        <f t="shared" si="11"/>
+        <v>1.3613494310669145</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A127">
+        <v>166</v>
+      </c>
+      <c r="B127">
+        <v>30.27323139372</v>
+      </c>
+      <c r="C127">
+        <v>77.999347842670005</v>
+      </c>
+      <c r="D127" s="10">
+        <f t="shared" si="7"/>
+        <v>166</v>
+      </c>
+      <c r="E127" s="10">
+        <f t="shared" si="10"/>
+        <v>0.52836756303852583</v>
+      </c>
+      <c r="F127" s="16">
+        <f t="shared" si="11"/>
+        <v>1.3613454342629276</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A128">
+        <v>129</v>
+      </c>
+      <c r="B128">
+        <v>30.27269119372</v>
+      </c>
+      <c r="C128">
+        <v>77.999964242670004</v>
+      </c>
+      <c r="D128" s="10">
+        <f t="shared" si="7"/>
+        <v>129</v>
+      </c>
+      <c r="E128" s="10">
+        <f t="shared" si="10"/>
+        <v>0.52835813476990656</v>
+      </c>
+      <c r="F128" s="16">
+        <f t="shared" si="11"/>
+        <v>1.3613561924724369</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A129">
+        <v>136</v>
+      </c>
+      <c r="B129">
+        <v>30.27324186529</v>
+      </c>
+      <c r="C129">
+        <v>78.000294308310004</v>
+      </c>
+      <c r="D129" s="10">
+        <f t="shared" si="7"/>
+        <v>136</v>
+      </c>
+      <c r="E129" s="10">
+        <f t="shared" si="10"/>
+        <v>0.52836774580190016</v>
+      </c>
+      <c r="F129" s="16">
+        <f t="shared" si="11"/>
+        <v>1.3613619532046026</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A130">
+        <v>96</v>
+      </c>
+      <c r="B130">
+        <v>30.273868920529999</v>
+      </c>
+      <c r="C130">
+        <v>77.999589273750004</v>
+      </c>
+      <c r="D130" s="10">
+        <f t="shared" ref="D130:D169" si="12">A130</f>
+        <v>96</v>
+      </c>
+      <c r="E130" s="10">
+        <f t="shared" si="10"/>
+        <v>0.52837868998043003</v>
+      </c>
+      <c r="F130" s="16">
+        <f t="shared" si="11"/>
+        <v>1.3613496480301903</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A131">
+        <v>126</v>
+      </c>
+      <c r="B131">
+        <v>30.272582293719999</v>
+      </c>
+      <c r="C131">
+        <v>77.999953342669997</v>
+      </c>
+      <c r="D131" s="10">
+        <f t="shared" si="12"/>
+        <v>126</v>
+      </c>
+      <c r="E131" s="10">
+        <f t="shared" si="10"/>
+        <v>0.52835623410635113</v>
+      </c>
+      <c r="F131" s="16">
+        <f t="shared" si="11"/>
+        <v>1.3613560022315483</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A132">
+        <v>146</v>
+      </c>
+      <c r="B132">
+        <v>30.272414966349999</v>
+      </c>
+      <c r="C132">
+        <v>78.001047446650006</v>
+      </c>
+      <c r="D132" s="10">
+        <f t="shared" si="12"/>
+        <v>146</v>
+      </c>
+      <c r="E132" s="10">
+        <f t="shared" si="10"/>
+        <v>0.52835331369281591</v>
+      </c>
+      <c r="F132" s="16">
+        <f t="shared" si="11"/>
+        <v>1.3613750979483588</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A133">
+        <v>123</v>
+      </c>
+      <c r="B133">
+        <v>30.27312301588</v>
+      </c>
+      <c r="C133">
+        <v>77.999625698510002</v>
+      </c>
+      <c r="D133" s="10">
+        <f t="shared" si="12"/>
+        <v>123</v>
+      </c>
+      <c r="E133" s="10">
+        <f t="shared" si="10"/>
+        <v>0.52836567148838165</v>
+      </c>
+      <c r="F133" s="16">
+        <f t="shared" si="11"/>
+        <v>1.3613502837621814</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A134">
+        <v>143</v>
+      </c>
+      <c r="B134">
+        <v>30.272459991870001</v>
+      </c>
+      <c r="C134">
+        <v>78.000984810250003</v>
+      </c>
+      <c r="D134" s="10">
+        <f t="shared" si="12"/>
+        <v>143</v>
+      </c>
+      <c r="E134" s="10">
+        <f t="shared" si="10"/>
+        <v>0.52835409953638734</v>
+      </c>
+      <c r="F134" s="16">
+        <f t="shared" si="11"/>
+        <v>1.3613740047369469</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A135">
+        <v>164</v>
+      </c>
+      <c r="B135">
+        <v>30.27328979372</v>
+      </c>
+      <c r="C135">
+        <v>77.99929454267</v>
+      </c>
+      <c r="D135" s="10">
+        <f t="shared" si="12"/>
+        <v>164</v>
+      </c>
+      <c r="E135" s="10">
+        <f t="shared" si="10"/>
+        <v>0.52836858231080897</v>
+      </c>
+      <c r="F135" s="16">
+        <f t="shared" si="11"/>
+        <v>1.3613445040024363</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A136">
+        <v>156</v>
+      </c>
+      <c r="B136">
+        <v>30.273516393720001</v>
+      </c>
+      <c r="C136">
+        <v>78.000408042670003</v>
+      </c>
+      <c r="D136" s="10">
+        <f t="shared" si="12"/>
+        <v>156</v>
+      </c>
+      <c r="E136" s="10">
+        <f t="shared" si="10"/>
+        <v>0.52837253722689403</v>
+      </c>
+      <c r="F136" s="16">
+        <f t="shared" si="11"/>
+        <v>1.3613639382436573</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A137">
+        <v>81</v>
+      </c>
+      <c r="B137">
+        <v>30.273544076949999</v>
+      </c>
+      <c r="C137">
+        <v>77.999296574590005</v>
+      </c>
+      <c r="D137" s="10">
+        <f t="shared" si="12"/>
+        <v>81</v>
+      </c>
+      <c r="E137" s="10">
+        <f t="shared" si="10"/>
+        <v>0.52837302039040512</v>
+      </c>
+      <c r="F137" s="16">
+        <f t="shared" si="11"/>
+        <v>1.3613445394661303</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A138">
+        <v>150</v>
+      </c>
+      <c r="B138">
+        <v>30.272560806400001</v>
+      </c>
+      <c r="C138">
+        <v>78.000456841420004</v>
+      </c>
+      <c r="D138" s="10">
+        <f t="shared" si="12"/>
+        <v>150</v>
+      </c>
+      <c r="E138" s="10">
+        <f t="shared" si="10"/>
+        <v>0.52835585908186966</v>
+      </c>
+      <c r="F138" s="16">
+        <f t="shared" si="11"/>
+        <v>1.3613647899425156</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A139">
+        <v>4</v>
+      </c>
+      <c r="B139">
+        <v>30.273127518430002</v>
+      </c>
+      <c r="C139">
+        <v>77.999757873199997</v>
+      </c>
+      <c r="D139" s="10">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="E139" s="10">
+        <f t="shared" si="10"/>
+        <v>0.52836575007270392</v>
+      </c>
+      <c r="F139" s="16">
+        <f t="shared" si="11"/>
+        <v>1.3613525906457096</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A140">
+        <v>135</v>
+      </c>
+      <c r="B140">
+        <v>30.27316680397</v>
+      </c>
+      <c r="C140">
+        <v>78.000181950020007</v>
+      </c>
+      <c r="D140" s="10">
+        <f t="shared" si="12"/>
+        <v>135</v>
+      </c>
+      <c r="E140" s="10">
+        <f t="shared" si="10"/>
+        <v>0.5283664357347253</v>
+      </c>
+      <c r="F140" s="16">
+        <f t="shared" si="11"/>
+        <v>1.3613599921825001</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A141">
+        <v>145</v>
+      </c>
+      <c r="B141">
+        <v>30.272432918900002</v>
+      </c>
+      <c r="C141">
+        <v>78.00107024543</v>
+      </c>
+      <c r="D141" s="10">
+        <f t="shared" si="12"/>
+        <v>145</v>
+      </c>
+      <c r="E141" s="10">
+        <f t="shared" si="10"/>
+        <v>0.52835362702392252</v>
+      </c>
+      <c r="F141" s="16">
+        <f t="shared" si="11"/>
+        <v>1.3613754958621349</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A142">
+        <v>138</v>
+      </c>
+      <c r="B142">
+        <v>30.273273256389999</v>
+      </c>
+      <c r="C142">
+        <v>78.000626724260002</v>
+      </c>
+      <c r="D142" s="10">
+        <f t="shared" si="12"/>
+        <v>138</v>
+      </c>
+      <c r="E142" s="10">
+        <f t="shared" si="10"/>
+        <v>0.52836829367995097</v>
+      </c>
+      <c r="F142" s="16">
+        <f t="shared" si="11"/>
+        <v>1.3613677549574161</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A143">
+        <v>169</v>
+      </c>
+      <c r="B143">
+        <v>30.273010294399999</v>
+      </c>
+      <c r="C143">
+        <v>78.000851645400004</v>
+      </c>
+      <c r="D143" s="10">
+        <f t="shared" si="12"/>
+        <v>169</v>
+      </c>
+      <c r="E143" s="10">
+        <f t="shared" si="10"/>
+        <v>0.52836370412741784</v>
+      </c>
+      <c r="F143" s="16">
+        <f t="shared" si="11"/>
+        <v>1.3613716805718665</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A144">
+        <v>142</v>
+      </c>
+      <c r="B144">
+        <v>30.272741093720001</v>
+      </c>
+      <c r="C144">
+        <v>78.00069604267</v>
+      </c>
+      <c r="D144" s="10">
+        <f t="shared" si="12"/>
+        <v>142</v>
+      </c>
+      <c r="E144" s="10">
+        <f t="shared" si="10"/>
+        <v>0.52835900568920335</v>
+      </c>
+      <c r="F144" s="16">
+        <f t="shared" si="11"/>
+        <v>1.3613689647919029</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A145">
+        <v>148</v>
+      </c>
+      <c r="B145">
+        <v>30.272224893720001</v>
+      </c>
+      <c r="C145">
+        <v>78.001022042670002</v>
+      </c>
+      <c r="D145" s="10">
+        <f t="shared" si="12"/>
+        <v>148</v>
+      </c>
+      <c r="E145" s="10">
+        <f t="shared" si="10"/>
+        <v>0.52834999629960444</v>
+      </c>
+      <c r="F145" s="16">
+        <f t="shared" si="11"/>
+        <v>1.3613746545652643</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A146">
+        <v>153</v>
+      </c>
+      <c r="B146">
+        <v>30.273379093719999</v>
+      </c>
+      <c r="C146">
+        <v>78.000464942670007</v>
+      </c>
+      <c r="D146" s="10">
+        <f t="shared" si="12"/>
+        <v>153</v>
+      </c>
+      <c r="E146" s="10">
+        <f t="shared" si="10"/>
+        <v>0.52837014088983092</v>
+      </c>
+      <c r="F146" s="16">
+        <f t="shared" si="11"/>
+        <v>1.3613649313360017</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A147">
+        <v>128</v>
+      </c>
+      <c r="B147">
+        <v>30.27263799372</v>
+      </c>
+      <c r="C147">
+        <v>78.000006842670004</v>
+      </c>
+      <c r="D147" s="10">
+        <f t="shared" si="12"/>
+        <v>128</v>
+      </c>
+      <c r="E147" s="10">
+        <f t="shared" si="10"/>
+        <v>0.52835720625474447</v>
+      </c>
+      <c r="F147" s="16">
+        <f t="shared" si="11"/>
+        <v>1.3613569359826982</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A148">
+        <v>163</v>
+      </c>
+      <c r="B148">
+        <v>30.273458293089998</v>
+      </c>
+      <c r="C148">
+        <v>77.99918605485</v>
+      </c>
+      <c r="D148" s="10">
+        <f t="shared" si="12"/>
+        <v>163</v>
+      </c>
+      <c r="E148" s="10">
+        <f t="shared" si="10"/>
+        <v>0.5283715231796029</v>
+      </c>
+      <c r="F148" s="16">
+        <f t="shared" si="11"/>
+        <v>1.3613426105327788</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A149">
+        <v>133</v>
+      </c>
+      <c r="B149">
+        <v>30.272904393720001</v>
+      </c>
+      <c r="C149">
+        <v>77.999885742670003</v>
+      </c>
+      <c r="D149" s="10">
+        <f t="shared" si="12"/>
+        <v>133</v>
+      </c>
+      <c r="E149" s="10">
+        <f t="shared" si="10"/>
+        <v>0.52836185581187178</v>
+      </c>
+      <c r="F149" s="16">
+        <f t="shared" si="11"/>
+        <v>1.361354822388974</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A150">
+        <v>149</v>
+      </c>
+      <c r="B150">
+        <v>30.27265319372</v>
+      </c>
+      <c r="C150">
+        <v>78.000614342670005</v>
+      </c>
+      <c r="D150" s="10">
+        <f t="shared" si="12"/>
+        <v>149</v>
+      </c>
+      <c r="E150" s="10">
+        <f t="shared" si="10"/>
+        <v>0.52835747154479074</v>
+      </c>
+      <c r="F150" s="16">
+        <f t="shared" si="11"/>
+        <v>1.3613675388579041</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A151">
+        <v>134</v>
+      </c>
+      <c r="B151">
+        <v>30.27303288217</v>
+      </c>
+      <c r="C151">
+        <v>78.000057835310002</v>
+      </c>
+      <c r="D151" s="10">
+        <f t="shared" si="12"/>
+        <v>134</v>
+      </c>
+      <c r="E151" s="10">
+        <f t="shared" si="10"/>
+        <v>0.52836409835837506</v>
+      </c>
+      <c r="F151" s="16">
+        <f t="shared" si="11"/>
+        <v>1.3613578259721604</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A152">
+        <v>140</v>
+      </c>
+      <c r="B152">
+        <v>30.273105925260001</v>
+      </c>
+      <c r="C152">
+        <v>78.000844425490001</v>
+      </c>
+      <c r="D152" s="10">
+        <f t="shared" si="12"/>
+        <v>140</v>
+      </c>
+      <c r="E152" s="10">
+        <f t="shared" si="10"/>
+        <v>0.52836537320079136</v>
+      </c>
+      <c r="F152" s="16">
+        <f t="shared" si="11"/>
+        <v>1.3613715545606653</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A153">
+        <v>147</v>
+      </c>
+      <c r="B153">
+        <v>30.272314093719999</v>
+      </c>
+      <c r="C153">
+        <v>78.001134942670006</v>
+      </c>
+      <c r="D153" s="10">
+        <f t="shared" si="12"/>
+        <v>147</v>
+      </c>
+      <c r="E153" s="10">
+        <f t="shared" si="10"/>
+        <v>0.52835155313329729</v>
+      </c>
+      <c r="F153" s="16">
+        <f t="shared" si="11"/>
+        <v>1.3613766250419901</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A154">
+        <v>157</v>
+      </c>
+      <c r="B154">
+        <v>30.273588093720001</v>
+      </c>
+      <c r="C154">
+        <v>78.000342042669999</v>
+      </c>
+      <c r="D154" s="10">
+        <f t="shared" si="12"/>
+        <v>157</v>
+      </c>
+      <c r="E154" s="10">
+        <f t="shared" si="10"/>
+        <v>0.52837378862796769</v>
+      </c>
+      <c r="F154" s="16">
+        <f t="shared" si="11"/>
+        <v>1.3613627863263507</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A155">
+        <v>137</v>
+      </c>
+      <c r="B155">
+        <v>30.273291189270001</v>
+      </c>
+      <c r="C155">
+        <v>78.000467872109994</v>
+      </c>
+      <c r="D155" s="10">
+        <f t="shared" si="12"/>
+        <v>137</v>
+      </c>
+      <c r="E155" s="10">
+        <f t="shared" si="10"/>
+        <v>0.52836860666775132</v>
+      </c>
+      <c r="F155" s="16">
+        <f t="shared" si="11"/>
+        <v>1.3613649824643748</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A156">
+        <v>162</v>
+      </c>
+      <c r="B156">
+        <v>30.273578493719999</v>
+      </c>
+      <c r="C156">
+        <v>77.999096442669995</v>
+      </c>
+      <c r="D156" s="10">
+        <f t="shared" si="12"/>
+        <v>162</v>
+      </c>
+      <c r="E156" s="10">
+        <f t="shared" si="10"/>
+        <v>0.52837362107635955</v>
+      </c>
+      <c r="F156" s="16">
+        <f t="shared" si="11"/>
+        <v>1.3613410465051878</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A157">
+        <v>155</v>
+      </c>
+      <c r="B157">
+        <v>30.27335254906</v>
+      </c>
+      <c r="C157">
+        <v>78.000683336110001</v>
+      </c>
+      <c r="D157" s="10">
+        <f t="shared" si="12"/>
+        <v>155</v>
+      </c>
+      <c r="E157" s="10">
+        <f t="shared" si="10"/>
+        <v>0.52836967759811515</v>
+      </c>
+      <c r="F157" s="16">
+        <f t="shared" si="11"/>
+        <v>1.3613687430205943</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A158">
+        <v>168</v>
+      </c>
+      <c r="B158">
+        <v>30.273398193719999</v>
+      </c>
+      <c r="C158">
+        <v>77.999296442670001</v>
+      </c>
+      <c r="D158" s="10">
+        <f t="shared" si="12"/>
+        <v>168</v>
+      </c>
+      <c r="E158" s="10">
+        <f t="shared" si="10"/>
+        <v>0.5283704742477181</v>
+      </c>
+      <c r="F158" s="16">
+        <f t="shared" si="11"/>
+        <v>1.3613445371636921</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A159">
+        <v>132</v>
+      </c>
+      <c r="B159">
+        <v>30.272938593719999</v>
+      </c>
+      <c r="C159">
+        <v>77.999992642669994</v>
+      </c>
+      <c r="D159" s="10">
+        <f t="shared" si="12"/>
+        <v>132</v>
+      </c>
+      <c r="E159" s="10">
+        <f t="shared" si="10"/>
+        <v>0.52836245271447591</v>
+      </c>
+      <c r="F159" s="16">
+        <f t="shared" si="11"/>
+        <v>1.3613566881459442</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A160">
+        <v>77</v>
+      </c>
+      <c r="B160">
+        <v>30.273595716749998</v>
+      </c>
+      <c r="C160">
+        <v>77.999271129799993</v>
+      </c>
+      <c r="D160" s="10">
+        <f t="shared" si="12"/>
+        <v>77</v>
+      </c>
+      <c r="E160" s="10">
+        <f t="shared" si="10"/>
+        <v>0.52837392167494013</v>
+      </c>
+      <c r="F160" s="16">
+        <f t="shared" si="11"/>
+        <v>1.3613440953707672</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A161">
+        <v>167</v>
+      </c>
+      <c r="B161">
+        <v>30.273253993720001</v>
+      </c>
+      <c r="C161">
+        <v>77.999384042670002</v>
+      </c>
+      <c r="D161" s="10">
+        <f t="shared" si="12"/>
+        <v>167</v>
+      </c>
+      <c r="E161" s="10">
+        <f t="shared" si="10"/>
+        <v>0.52836795748293675</v>
+      </c>
+      <c r="F161" s="16">
+        <f t="shared" si="11"/>
+        <v>1.3613460660721168</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A162">
+        <v>141</v>
+      </c>
+      <c r="B162">
+        <v>30.272933085319998</v>
+      </c>
+      <c r="C162">
+        <v>78.00081811199</v>
+      </c>
+      <c r="D162" s="10">
+        <f t="shared" si="12"/>
+        <v>141</v>
+      </c>
+      <c r="E162" s="10">
+        <f t="shared" si="10"/>
+        <v>0.52836235657475938</v>
+      </c>
+      <c r="F162" s="16">
+        <f t="shared" si="11"/>
+        <v>1.3613710953034526</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A163">
+        <v>152</v>
+      </c>
+      <c r="B163">
+        <v>30.27254441461</v>
+      </c>
+      <c r="C163">
+        <v>78.000177407080002</v>
+      </c>
+      <c r="D163" s="10">
+        <f t="shared" si="12"/>
+        <v>152</v>
+      </c>
+      <c r="E163" s="10">
+        <f t="shared" si="10"/>
+        <v>0.52835557299116387</v>
+      </c>
+      <c r="F163" s="16">
+        <f t="shared" si="11"/>
+        <v>1.3613599128932394</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A164">
+        <v>151</v>
+      </c>
+      <c r="B164">
+        <v>30.272515156379999</v>
+      </c>
+      <c r="C164">
+        <v>78.000312100949998</v>
+      </c>
+      <c r="D164" s="10">
+        <f t="shared" si="12"/>
+        <v>151</v>
+      </c>
+      <c r="E164" s="10">
+        <f t="shared" si="10"/>
+        <v>0.52835506233871699</v>
+      </c>
+      <c r="F164" s="16">
+        <f t="shared" si="11"/>
+        <v>1.3613622637447531</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A165">
+        <v>131</v>
+      </c>
+      <c r="B165">
+        <v>30.27286873681</v>
+      </c>
+      <c r="C165">
+        <v>77.999957878250001</v>
+      </c>
+      <c r="D165" s="10">
+        <f t="shared" si="12"/>
+        <v>131</v>
+      </c>
+      <c r="E165" s="10">
+        <f t="shared" si="10"/>
+        <v>0.52836123348139119</v>
+      </c>
+      <c r="F165" s="16">
+        <f t="shared" si="11"/>
+        <v>1.3613560813923529</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A166">
+        <v>127</v>
+      </c>
+      <c r="B166">
+        <v>30.27254679372</v>
+      </c>
+      <c r="C166">
+        <v>77.999906442669996</v>
+      </c>
+      <c r="D166" s="10">
+        <f t="shared" si="12"/>
+        <v>127</v>
+      </c>
+      <c r="E166" s="10">
+        <f t="shared" si="10"/>
+        <v>0.52835561451446666</v>
+      </c>
+      <c r="F166" s="16">
+        <f t="shared" si="11"/>
+        <v>1.3613551836721289</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A167">
+        <v>144</v>
+      </c>
+      <c r="B167">
+        <v>30.272486776539999</v>
+      </c>
+      <c r="C167">
+        <v>78.001020624559999</v>
+      </c>
+      <c r="D167" s="10">
+        <f t="shared" si="12"/>
+        <v>144</v>
+      </c>
+      <c r="E167" s="10">
+        <f t="shared" si="10"/>
+        <v>0.52835456701706784</v>
+      </c>
+      <c r="F167" s="16">
+        <f t="shared" si="11"/>
+        <v>1.3613746298145757</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A168">
+        <v>125</v>
+      </c>
+      <c r="B168">
+        <v>30.27279399803</v>
+      </c>
+      <c r="C168">
+        <v>77.999749627819995</v>
+      </c>
+      <c r="D168" s="10">
+        <f t="shared" si="12"/>
+        <v>125</v>
+      </c>
+      <c r="E168" s="10">
+        <f t="shared" si="10"/>
+        <v>0.5283599290436013</v>
+      </c>
+      <c r="F168" s="16">
+        <f t="shared" si="11"/>
+        <v>1.3613524467366807</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A169">
+        <v>158</v>
+      </c>
+      <c r="B169">
+        <v>30.273674893719999</v>
+      </c>
+      <c r="C169">
+        <v>78.000237542670007</v>
+      </c>
+      <c r="D169" s="10">
+        <f t="shared" si="12"/>
+        <v>158</v>
+      </c>
+      <c r="E169" s="10">
+        <f t="shared" si="10"/>
+        <v>0.52837530357375839</v>
+      </c>
+      <c r="F169" s="16">
+        <f t="shared" si="11"/>
+        <v>1.3613609624572827</v>
+      </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C118">
@@ -4245,21 +5418,21 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66B2B2AA-5BA2-4F1E-868A-BF479C3DCC3B}">
-  <dimension ref="A1:L118"/>
+  <dimension ref="A1:L172"/>
   <sheetViews>
-    <sheetView topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H118"/>
+    <sheetView tabSelected="1" topLeftCell="A155" workbookViewId="0">
+      <selection activeCell="J119" sqref="J119:L172"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="6" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="15.5546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19" customWidth="1"/>
-    <col min="8" max="8" width="20.85546875" customWidth="1"/>
-    <col min="12" max="12" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.88671875" customWidth="1"/>
+    <col min="12" max="12" width="9.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>14</v>
       </c>
@@ -4293,7 +5466,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="10">
         <v>1</v>
       </c>
@@ -4301,19 +5474,19 @@
         <v>2</v>
       </c>
       <c r="C2" s="10" cm="1">
-        <f t="array" ref="C2:C118">VLOOKUP(A2:A118,'GraphNode Database'!D2:F118,2,FALSE)</f>
+        <f t="array" ref="C2:C172">VLOOKUP(A2:A172,'GraphNode Database'!D1:F169,2,FALSE)</f>
         <v>0.5283644723775468</v>
       </c>
       <c r="D2" s="10" cm="1">
-        <f t="array" ref="D2:D118">VLOOKUP(A2:A118,'GraphNode Database'!D2:F118,3,FALSE)</f>
+        <f t="array" ref="D2:D172">VLOOKUP(A2:A172,'GraphNode Database'!D1:F169,3,FALSE)</f>
         <v>1.3613519121498356</v>
       </c>
       <c r="E2" s="10" cm="1">
-        <f t="array" ref="E2:E118">VLOOKUP(B2:B118,'GraphNode Database'!D2:F118,2,FALSE)</f>
+        <f t="array" ref="E2:E172">VLOOKUP(B2:B172,'GraphNode Database'!D2:F169,2,FALSE)</f>
         <v>0.5283646133641966</v>
       </c>
       <c r="F2" s="10" cm="1">
-        <f t="array" ref="F2:F118">VLOOKUP(B2:B118,'GraphNode Database'!D2:F118,3,FALSE)</f>
+        <f t="array" ref="F2:F172">VLOOKUP(B2:B172,'GraphNode Database'!D2:F169,3,FALSE)</f>
         <v>1.361352355981305</v>
       </c>
       <c r="G2" s="10">
@@ -4337,7 +5510,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="10">
         <v>2</v>
       </c>
@@ -4377,7 +5550,7 @@
         <v>2.5299999999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="10">
         <v>2</v>
       </c>
@@ -4417,7 +5590,7 @@
         <v>7.36</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="10">
         <v>4</v>
       </c>
@@ -4457,7 +5630,7 @@
         <v>9.8699999999999992</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="10">
         <v>5</v>
       </c>
@@ -4497,7 +5670,7 @@
         <v>5.59</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="10">
         <v>5</v>
       </c>
@@ -4537,7 +5710,7 @@
         <v>3.67</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="10">
         <v>7</v>
       </c>
@@ -4577,7 +5750,7 @@
         <v>8.2200000000000006</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="10">
         <v>8</v>
       </c>
@@ -4617,7 +5790,7 @@
         <v>0.69</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="10">
         <v>7</v>
       </c>
@@ -4657,7 +5830,7 @@
         <v>1.21</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="10">
         <v>12</v>
       </c>
@@ -4697,7 +5870,7 @@
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="10">
         <v>11</v>
       </c>
@@ -4737,7 +5910,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="10">
         <v>12</v>
       </c>
@@ -4777,7 +5950,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="10">
         <v>53</v>
       </c>
@@ -4817,7 +5990,7 @@
         <v>4.78</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="10">
         <v>13</v>
       </c>
@@ -4857,7 +6030,7 @@
         <v>8.36</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="10">
         <v>15</v>
       </c>
@@ -4897,7 +6070,7 @@
         <v>6.35</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="10">
         <v>54</v>
       </c>
@@ -4937,7 +6110,7 @@
         <v>11.39</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="10">
         <v>16</v>
       </c>
@@ -4977,7 +6150,7 @@
         <v>6.96</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="10">
         <v>16</v>
       </c>
@@ -5017,7 +6190,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="10">
         <v>16</v>
       </c>
@@ -5057,7 +6230,7 @@
         <v>2.4500000000000002</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="10">
         <v>19</v>
       </c>
@@ -5097,7 +6270,7 @@
         <v>8.48</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="10">
         <v>19</v>
       </c>
@@ -5137,7 +6310,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="10">
         <v>18</v>
       </c>
@@ -5177,7 +6350,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="10">
         <v>22</v>
       </c>
@@ -5217,7 +6390,7 @@
         <v>8.4700000000000006</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="10">
         <v>22</v>
       </c>
@@ -5257,7 +6430,7 @@
         <v>0.56999999999999995</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="10">
         <v>23</v>
       </c>
@@ -5297,7 +6470,7 @@
         <v>8.82</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="10">
         <v>25</v>
       </c>
@@ -5337,7 +6510,7 @@
         <v>4.7699999999999996</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="10">
         <v>23</v>
       </c>
@@ -5377,7 +6550,7 @@
         <v>10.61</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="10">
         <v>27</v>
       </c>
@@ -5417,7 +6590,7 @@
         <v>8.6300000000000008</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="10">
         <v>27</v>
       </c>
@@ -5457,7 +6630,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="10">
         <v>27</v>
       </c>
@@ -5497,7 +6670,7 @@
         <v>2.08</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="10">
         <v>26</v>
       </c>
@@ -5537,7 +6710,7 @@
         <v>4.3099999999999996</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="10">
         <v>109</v>
       </c>
@@ -5577,7 +6750,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="10">
         <v>109</v>
       </c>
@@ -5617,7 +6790,7 @@
         <v>3.79</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="10">
         <v>111</v>
       </c>
@@ -5657,7 +6830,7 @@
         <v>2.91</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="10">
         <v>109</v>
       </c>
@@ -5697,7 +6870,7 @@
         <v>6.27</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="10">
         <v>113</v>
       </c>
@@ -5737,7 +6910,7 @@
         <v>3.77</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="10">
         <v>113</v>
       </c>
@@ -5777,7 +6950,7 @@
         <v>2.97</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="10">
         <v>114</v>
       </c>
@@ -5817,7 +6990,7 @@
         <v>5.58</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="10">
         <v>116</v>
       </c>
@@ -5857,7 +7030,7 @@
         <v>2.67</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="10">
         <v>116</v>
       </c>
@@ -5897,7 +7070,7 @@
         <v>1.43</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="10">
         <v>30</v>
       </c>
@@ -5937,7 +7110,7 @@
         <v>1.21</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="10">
         <v>30</v>
       </c>
@@ -5977,7 +7150,7 @@
         <v>2.89</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="10">
         <v>115</v>
       </c>
@@ -6017,7 +7190,7 @@
         <v>10.220000000000001</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" s="10">
         <v>33</v>
       </c>
@@ -6057,7 +7230,7 @@
         <v>4.38</v>
       </c>
     </row>
-    <row r="46" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" s="10">
         <v>34</v>
       </c>
@@ -6097,7 +7270,7 @@
         <v>3.85</v>
       </c>
     </row>
-    <row r="47" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" s="10">
         <v>34</v>
       </c>
@@ -6137,7 +7310,7 @@
         <v>4.3499999999999996</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="10">
         <v>36</v>
       </c>
@@ -6177,7 +7350,7 @@
         <v>3.82</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" s="10">
         <v>37</v>
       </c>
@@ -6217,7 +7390,7 @@
         <v>10.41</v>
       </c>
     </row>
-    <row r="50" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50" s="10">
         <v>37</v>
       </c>
@@ -6257,7 +7430,7 @@
         <v>2.35</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A51" s="10">
         <v>39</v>
       </c>
@@ -6297,7 +7470,7 @@
         <v>1.06</v>
       </c>
     </row>
-    <row r="52" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52" s="10">
         <v>39</v>
       </c>
@@ -6337,7 +7510,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="53" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A53" s="10">
         <v>41</v>
       </c>
@@ -6377,7 +7550,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="54" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A54" s="10">
         <v>37</v>
       </c>
@@ -6417,7 +7590,7 @@
         <v>5.97</v>
       </c>
     </row>
-    <row r="55" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A55" s="10">
         <v>42</v>
       </c>
@@ -6457,7 +7630,7 @@
         <v>3.27</v>
       </c>
     </row>
-    <row r="56" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A56" s="10">
         <v>44</v>
       </c>
@@ -6497,7 +7670,7 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="57" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A57" s="10">
         <v>42</v>
       </c>
@@ -6537,7 +7710,7 @@
         <v>6.13</v>
       </c>
     </row>
-    <row r="58" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A58" s="10">
         <v>46</v>
       </c>
@@ -6577,7 +7750,7 @@
         <v>3.25</v>
       </c>
     </row>
-    <row r="59" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A59" s="10">
         <v>46</v>
       </c>
@@ -6617,7 +7790,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="60" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A60" s="10">
         <v>47</v>
       </c>
@@ -6657,7 +7830,7 @@
         <v>2.4700000000000002</v>
       </c>
     </row>
-    <row r="61" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A61" s="10">
         <v>49</v>
       </c>
@@ -6697,7 +7870,7 @@
         <v>3.87</v>
       </c>
     </row>
-    <row r="62" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A62" s="10">
         <v>49</v>
       </c>
@@ -6737,7 +7910,7 @@
         <v>5.73</v>
       </c>
     </row>
-    <row r="63" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A63" s="10">
         <v>51</v>
       </c>
@@ -6777,7 +7950,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="64" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A64" s="10">
         <v>52</v>
       </c>
@@ -6817,7 +7990,7 @@
         <v>2.2599999999999998</v>
       </c>
     </row>
-    <row r="65" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A65" s="10">
         <v>49</v>
       </c>
@@ -6857,7 +8030,7 @@
         <v>12.2</v>
       </c>
     </row>
-    <row r="66" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A66" s="10">
         <v>34</v>
       </c>
@@ -6897,7 +8070,7 @@
         <v>10.14</v>
       </c>
     </row>
-    <row r="67" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A67" s="10">
         <v>57</v>
       </c>
@@ -6937,7 +8110,7 @@
         <v>4.4400000000000004</v>
       </c>
     </row>
-    <row r="68" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A68" s="10">
         <v>56</v>
       </c>
@@ -6977,7 +8150,7 @@
         <v>3.93</v>
       </c>
     </row>
-    <row r="69" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A69" s="10">
         <v>58</v>
       </c>
@@ -7017,7 +8190,7 @@
         <v>3.29</v>
       </c>
     </row>
-    <row r="70" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A70" s="10">
         <v>58</v>
       </c>
@@ -7057,7 +8230,7 @@
         <v>1.02</v>
       </c>
     </row>
-    <row r="71" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A71" s="10">
         <v>60</v>
       </c>
@@ -7097,7 +8270,7 @@
         <v>4.49</v>
       </c>
     </row>
-    <row r="72" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A72" s="10">
         <v>60</v>
       </c>
@@ -7137,7 +8310,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="73" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A73" s="10">
         <v>62</v>
       </c>
@@ -7177,7 +8350,7 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="74" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A74" s="10">
         <v>64</v>
       </c>
@@ -7217,7 +8390,7 @@
         <v>4.51</v>
       </c>
     </row>
-    <row r="75" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A75" s="10">
         <v>58</v>
       </c>
@@ -7257,7 +8430,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="76" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A76" s="10">
         <v>103</v>
       </c>
@@ -7297,7 +8470,7 @@
         <v>2.15</v>
       </c>
     </row>
-    <row r="77" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A77" s="10">
         <v>103</v>
       </c>
@@ -7337,7 +8510,7 @@
         <v>2.79</v>
       </c>
     </row>
-    <row r="78" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A78" s="10">
         <v>103</v>
       </c>
@@ -7377,7 +8550,7 @@
         <v>8.18</v>
       </c>
     </row>
-    <row r="79" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A79" s="10">
         <v>100</v>
       </c>
@@ -7417,7 +8590,7 @@
         <v>8.1199999999999992</v>
       </c>
     </row>
-    <row r="80" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A80" s="10">
         <v>100</v>
       </c>
@@ -7457,7 +8630,7 @@
         <v>5.23</v>
       </c>
     </row>
-    <row r="81" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A81" s="10">
         <v>100</v>
       </c>
@@ -7497,7 +8670,7 @@
         <v>8.98</v>
       </c>
     </row>
-    <row r="82" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A82" s="10">
         <v>89</v>
       </c>
@@ -7537,7 +8710,7 @@
         <v>3.56</v>
       </c>
     </row>
-    <row r="83" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A83" s="10">
         <v>90</v>
       </c>
@@ -7577,7 +8750,7 @@
         <v>2.72</v>
       </c>
     </row>
-    <row r="84" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A84" s="10">
         <v>90</v>
       </c>
@@ -7617,7 +8790,7 @@
         <v>3.47</v>
       </c>
     </row>
-    <row r="85" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A85" s="10">
         <v>90</v>
       </c>
@@ -7657,7 +8830,7 @@
         <v>6.02</v>
       </c>
     </row>
-    <row r="86" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A86" s="10">
         <v>98</v>
       </c>
@@ -7697,7 +8870,7 @@
         <v>1.1399999999999999</v>
       </c>
     </row>
-    <row r="87" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A87" s="10">
         <v>98</v>
       </c>
@@ -7737,7 +8910,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="88" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A88" s="10">
         <v>98</v>
       </c>
@@ -7777,7 +8950,7 @@
         <v>1.07</v>
       </c>
     </row>
-    <row r="89" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A89" s="10">
         <v>96</v>
       </c>
@@ -7817,7 +8990,7 @@
         <v>5.37</v>
       </c>
     </row>
-    <row r="90" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A90" s="10">
         <v>96</v>
       </c>
@@ -7857,7 +9030,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="91" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A91" s="10">
         <v>92</v>
       </c>
@@ -7897,7 +9070,7 @@
         <v>5.37</v>
       </c>
     </row>
-    <row r="92" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A92" s="10">
         <v>94</v>
       </c>
@@ -7937,7 +9110,7 @@
         <v>1.04</v>
       </c>
     </row>
-    <row r="93" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A93" s="10">
         <v>88</v>
       </c>
@@ -7977,7 +9150,7 @@
         <v>6.73</v>
       </c>
     </row>
-    <row r="94" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A94" s="10">
         <v>87</v>
       </c>
@@ -8017,7 +9190,7 @@
         <v>4.07</v>
       </c>
     </row>
-    <row r="95" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A95" s="10">
         <v>84</v>
       </c>
@@ -8057,7 +9230,7 @@
         <v>2.66</v>
       </c>
     </row>
-    <row r="96" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A96" s="10">
         <v>84</v>
       </c>
@@ -8097,7 +9270,7 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="97" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A97" s="10">
         <v>84</v>
       </c>
@@ -8137,7 +9310,7 @@
         <v>12.51</v>
       </c>
     </row>
-    <row r="98" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A98" s="10">
         <v>71</v>
       </c>
@@ -8157,7 +9330,7 @@
         <v>1.361346165344874</v>
       </c>
       <c r="G98" s="10">
-        <f t="shared" ref="G98:G129" si="11">POWER(SIN((C98-E98)/2),2)+COS(C98)*COS(E98)*POWER(SIN((D98-F98)/2),2)</f>
+        <f t="shared" ref="G98:G118" si="11">POWER(SIN((C98-E98)/2),2)+COS(C98)*COS(E98)*POWER(SIN((D98-F98)/2),2)</f>
         <v>9.2329752229062882E-14</v>
       </c>
       <c r="H98" s="10">
@@ -8177,7 +9350,7 @@
         <v>3.87</v>
       </c>
     </row>
-    <row r="99" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A99" s="10">
         <v>72</v>
       </c>
@@ -8217,7 +9390,7 @@
         <v>3.22</v>
       </c>
     </row>
-    <row r="100" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A100" s="10">
         <v>72</v>
       </c>
@@ -8257,7 +9430,7 @@
         <v>3.32</v>
       </c>
     </row>
-    <row r="101" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A101" s="10">
         <v>72</v>
       </c>
@@ -8297,7 +9470,7 @@
         <v>4.62</v>
       </c>
     </row>
-    <row r="102" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A102" s="10">
         <v>75</v>
       </c>
@@ -8337,7 +9510,7 @@
         <v>3.73</v>
       </c>
     </row>
-    <row r="103" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A103" s="10">
         <v>76</v>
       </c>
@@ -8377,7 +9550,7 @@
         <v>2.4500000000000002</v>
       </c>
     </row>
-    <row r="104" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A104" s="10">
         <v>76</v>
       </c>
@@ -8417,7 +9590,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="105" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A105" s="10">
         <v>78</v>
       </c>
@@ -8457,7 +9630,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="106" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A106" s="10">
         <v>76</v>
       </c>
@@ -8497,7 +9670,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="107" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A107" s="10">
         <v>83</v>
       </c>
@@ -8537,7 +9710,7 @@
         <v>3.16</v>
       </c>
     </row>
-    <row r="108" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A108" s="10">
         <v>81</v>
       </c>
@@ -8577,7 +9750,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="109" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A109" s="10">
         <v>81</v>
       </c>
@@ -8617,7 +9790,7 @@
         <v>5.82</v>
       </c>
     </row>
-    <row r="110" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A110" s="10">
         <v>79</v>
       </c>
@@ -8657,7 +9830,7 @@
         <v>1.07</v>
       </c>
     </row>
-    <row r="111" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A111" s="10">
         <v>70</v>
       </c>
@@ -8697,7 +9870,7 @@
         <v>9.42</v>
       </c>
     </row>
-    <row r="112" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A112" s="10">
         <v>69</v>
       </c>
@@ -8737,7 +9910,7 @@
         <v>5.12</v>
       </c>
     </row>
-    <row r="113" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A113" s="10">
         <v>67</v>
       </c>
@@ -8777,7 +9950,7 @@
         <v>7.34</v>
       </c>
     </row>
-    <row r="114" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A114" s="10">
         <v>67</v>
       </c>
@@ -8817,7 +9990,7 @@
         <v>7.68</v>
       </c>
     </row>
-    <row r="115" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A115" s="10">
         <v>66</v>
       </c>
@@ -8857,7 +10030,7 @@
         <v>2.88</v>
       </c>
     </row>
-    <row r="116" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A116" s="10">
         <v>59</v>
       </c>
@@ -8897,7 +10070,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="117" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A117" s="10">
         <v>105</v>
       </c>
@@ -8937,7 +10110,7 @@
         <v>10.57</v>
       </c>
     </row>
-    <row r="118" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A118" s="10">
         <v>107</v>
       </c>
@@ -8975,6 +10148,2166 @@
       <c r="L118" s="10">
         <f t="shared" si="10"/>
         <v>1.08</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <v>4</v>
+      </c>
+      <c r="B119">
+        <v>123</v>
+      </c>
+      <c r="C119" s="10">
+        <v>0.52836575007270392</v>
+      </c>
+      <c r="D119" s="10">
+        <v>1.3613525906457096</v>
+      </c>
+      <c r="E119" s="10">
+        <v>0.52836567148838165</v>
+      </c>
+      <c r="F119" s="10">
+        <v>1.3613502837621814</v>
+      </c>
+      <c r="G119" s="10">
+        <f t="shared" ref="G119:G122" si="12">POWER(SIN((C119-E119)/2),2)+COS(C119)*COS(E119)*POWER(SIN((D119-F119)/2),2)</f>
+        <v>9.9385738035009057E-13</v>
+      </c>
+      <c r="H119" s="10">
+        <f t="shared" ref="H119:H122" si="13">ROUND((2*ASIN(SQRT(G119))*6371*1000),2)</f>
+        <v>12.7</v>
+      </c>
+      <c r="J119" s="10">
+        <f t="shared" ref="J119:J122" si="14">A119</f>
+        <v>4</v>
+      </c>
+      <c r="K119" s="10">
+        <f t="shared" ref="K119:K122" si="15">B119</f>
+        <v>123</v>
+      </c>
+      <c r="L119" s="10">
+        <f t="shared" ref="L119:L122" si="16">H119</f>
+        <v>12.7</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <v>124</v>
+      </c>
+      <c r="B120">
+        <v>123</v>
+      </c>
+      <c r="C120" s="10">
+        <v>0.52836435064118059</v>
+      </c>
+      <c r="D120" s="10">
+        <v>1.3613483820191399</v>
+      </c>
+      <c r="E120" s="10">
+        <v>0.52836567148838165</v>
+      </c>
+      <c r="F120" s="10">
+        <v>1.3613502837621814</v>
+      </c>
+      <c r="G120" s="10">
+        <f t="shared" si="12"/>
+        <v>1.1105345353758974E-12</v>
+      </c>
+      <c r="H120" s="10">
+        <f t="shared" si="13"/>
+        <v>13.43</v>
+      </c>
+      <c r="J120" s="10">
+        <f t="shared" si="14"/>
+        <v>124</v>
+      </c>
+      <c r="K120" s="10">
+        <f t="shared" si="15"/>
+        <v>123</v>
+      </c>
+      <c r="L120" s="10">
+        <f t="shared" si="16"/>
+        <v>13.43</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <v>124</v>
+      </c>
+      <c r="B121">
+        <v>125</v>
+      </c>
+      <c r="C121" s="10">
+        <v>0.52836435064118059</v>
+      </c>
+      <c r="D121" s="10">
+        <v>1.3613483820191399</v>
+      </c>
+      <c r="E121" s="10">
+        <v>0.5283599290436013</v>
+      </c>
+      <c r="F121" s="10">
+        <v>1.3613524467366807</v>
+      </c>
+      <c r="G121" s="10">
+        <f t="shared" si="12"/>
+        <v>7.9684072733728469E-12</v>
+      </c>
+      <c r="H121" s="10">
+        <f t="shared" si="13"/>
+        <v>35.97</v>
+      </c>
+      <c r="J121" s="10">
+        <f t="shared" si="14"/>
+        <v>124</v>
+      </c>
+      <c r="K121" s="10">
+        <f t="shared" si="15"/>
+        <v>125</v>
+      </c>
+      <c r="L121" s="10">
+        <f t="shared" si="16"/>
+        <v>35.97</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <v>126</v>
+      </c>
+      <c r="B122">
+        <v>125</v>
+      </c>
+      <c r="C122">
+        <v>0.52835623410635113</v>
+      </c>
+      <c r="D122">
+        <v>1.3613560022315483</v>
+      </c>
+      <c r="E122">
+        <v>0.5283599290436013</v>
+      </c>
+      <c r="F122">
+        <v>1.3613524467366807</v>
+      </c>
+      <c r="G122" s="10">
+        <f t="shared" si="12"/>
+        <v>5.7703680793762813E-12</v>
+      </c>
+      <c r="H122" s="10">
+        <f t="shared" si="13"/>
+        <v>30.61</v>
+      </c>
+      <c r="J122" s="10">
+        <f t="shared" si="14"/>
+        <v>126</v>
+      </c>
+      <c r="K122" s="10">
+        <f t="shared" si="15"/>
+        <v>125</v>
+      </c>
+      <c r="L122" s="10">
+        <f t="shared" si="16"/>
+        <v>30.61</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A123">
+        <v>126</v>
+      </c>
+      <c r="B123">
+        <v>127</v>
+      </c>
+      <c r="C123">
+        <v>0.52835623410635113</v>
+      </c>
+      <c r="D123">
+        <v>1.3613560022315483</v>
+      </c>
+      <c r="E123">
+        <v>0.52835561451446666</v>
+      </c>
+      <c r="F123">
+        <v>1.3613551836721289</v>
+      </c>
+      <c r="G123" s="10">
+        <f t="shared" ref="G123:G172" si="17">POWER(SIN((C123-E123)/2),2)+COS(C123)*COS(E123)*POWER(SIN((D123-F123)/2),2)</f>
+        <v>2.2091394224708625E-13</v>
+      </c>
+      <c r="H123" s="10">
+        <f t="shared" ref="H123:H172" si="18">ROUND((2*ASIN(SQRT(G123))*6371*1000),2)</f>
+        <v>5.99</v>
+      </c>
+      <c r="J123" s="10">
+        <f t="shared" ref="J123:J172" si="19">A123</f>
+        <v>126</v>
+      </c>
+      <c r="K123" s="10">
+        <f t="shared" ref="K123:K172" si="20">B123</f>
+        <v>127</v>
+      </c>
+      <c r="L123" s="10">
+        <f t="shared" ref="L123:L172" si="21">H123</f>
+        <v>5.99</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A124">
+        <v>126</v>
+      </c>
+      <c r="B124">
+        <v>128</v>
+      </c>
+      <c r="C124">
+        <v>0.52835623410635113</v>
+      </c>
+      <c r="D124">
+        <v>1.3613560022315483</v>
+      </c>
+      <c r="E124">
+        <v>0.52835720625474447</v>
+      </c>
+      <c r="F124">
+        <v>1.3613569359826982</v>
+      </c>
+      <c r="G124" s="10">
+        <f t="shared" si="17"/>
+        <v>3.9884711576353287E-13</v>
+      </c>
+      <c r="H124" s="10">
+        <f t="shared" si="18"/>
+        <v>8.0500000000000007</v>
+      </c>
+      <c r="J124" s="10">
+        <f t="shared" si="19"/>
+        <v>126</v>
+      </c>
+      <c r="K124" s="10">
+        <f t="shared" si="20"/>
+        <v>128</v>
+      </c>
+      <c r="L124" s="10">
+        <f t="shared" si="21"/>
+        <v>8.0500000000000007</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A125">
+        <v>129</v>
+      </c>
+      <c r="B125">
+        <v>128</v>
+      </c>
+      <c r="C125">
+        <v>0.52835813476990656</v>
+      </c>
+      <c r="D125">
+        <v>1.3613561924724369</v>
+      </c>
+      <c r="E125">
+        <v>0.52835720625474447</v>
+      </c>
+      <c r="F125">
+        <v>1.3613569359826982</v>
+      </c>
+      <c r="G125" s="10">
+        <f t="shared" si="17"/>
+        <v>3.1861537842650452E-13</v>
+      </c>
+      <c r="H125" s="10">
+        <f t="shared" si="18"/>
+        <v>7.19</v>
+      </c>
+      <c r="J125" s="10">
+        <f t="shared" si="19"/>
+        <v>129</v>
+      </c>
+      <c r="K125" s="10">
+        <f t="shared" si="20"/>
+        <v>128</v>
+      </c>
+      <c r="L125" s="10">
+        <f t="shared" si="21"/>
+        <v>7.19</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A126">
+        <v>129</v>
+      </c>
+      <c r="B126">
+        <v>130</v>
+      </c>
+      <c r="C126">
+        <v>0.52835813476990656</v>
+      </c>
+      <c r="D126">
+        <v>1.3613561924724369</v>
+      </c>
+      <c r="E126">
+        <v>0.52835947268572947</v>
+      </c>
+      <c r="F126">
+        <v>1.3613558713318545</v>
+      </c>
+      <c r="G126" s="10">
+        <f t="shared" si="17"/>
+        <v>4.6673522596975058E-13</v>
+      </c>
+      <c r="H126" s="10">
+        <f t="shared" si="18"/>
+        <v>8.7100000000000009</v>
+      </c>
+      <c r="J126" s="10">
+        <f t="shared" si="19"/>
+        <v>129</v>
+      </c>
+      <c r="K126" s="10">
+        <f t="shared" si="20"/>
+        <v>130</v>
+      </c>
+      <c r="L126" s="10">
+        <f t="shared" si="21"/>
+        <v>8.7100000000000009</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A127">
+        <v>131</v>
+      </c>
+      <c r="B127">
+        <v>130</v>
+      </c>
+      <c r="C127">
+        <v>0.52836123348139119</v>
+      </c>
+      <c r="D127">
+        <v>1.3613560813923529</v>
+      </c>
+      <c r="E127">
+        <v>0.52835947268572947</v>
+      </c>
+      <c r="F127">
+        <v>1.3613558713318545</v>
+      </c>
+      <c r="G127" s="10">
+        <f t="shared" si="17"/>
+        <v>7.8332824173916629E-13</v>
+      </c>
+      <c r="H127" s="10">
+        <f t="shared" si="18"/>
+        <v>11.28</v>
+      </c>
+      <c r="J127" s="10">
+        <f t="shared" si="19"/>
+        <v>131</v>
+      </c>
+      <c r="K127" s="10">
+        <f t="shared" si="20"/>
+        <v>130</v>
+      </c>
+      <c r="L127" s="10">
+        <f t="shared" si="21"/>
+        <v>11.28</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A128">
+        <v>131</v>
+      </c>
+      <c r="B128">
+        <v>132</v>
+      </c>
+      <c r="C128">
+        <v>0.52836123348139119</v>
+      </c>
+      <c r="D128">
+        <v>1.3613560813923529</v>
+      </c>
+      <c r="E128">
+        <v>0.52836245271447591</v>
+      </c>
+      <c r="F128">
+        <v>1.3613566881459442</v>
+      </c>
+      <c r="G128" s="10">
+        <f t="shared" si="17"/>
+        <v>4.402797517181257E-13</v>
+      </c>
+      <c r="H128" s="10">
+        <f t="shared" si="18"/>
+        <v>8.4499999999999993</v>
+      </c>
+      <c r="J128" s="10">
+        <f t="shared" si="19"/>
+        <v>131</v>
+      </c>
+      <c r="K128" s="10">
+        <f t="shared" si="20"/>
+        <v>132</v>
+      </c>
+      <c r="L128" s="10">
+        <f t="shared" si="21"/>
+        <v>8.4499999999999993</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A129">
+        <v>133</v>
+      </c>
+      <c r="B129">
+        <v>132</v>
+      </c>
+      <c r="C129">
+        <v>0.52836185581187178</v>
+      </c>
+      <c r="D129">
+        <v>1.361354822388974</v>
+      </c>
+      <c r="E129">
+        <v>0.52836245271447591</v>
+      </c>
+      <c r="F129">
+        <v>1.3613566881459442</v>
+      </c>
+      <c r="G129" s="10">
+        <f t="shared" si="17"/>
+        <v>7.3817005012164988E-13</v>
+      </c>
+      <c r="H129" s="10">
+        <f t="shared" si="18"/>
+        <v>10.95</v>
+      </c>
+      <c r="J129" s="10">
+        <f t="shared" si="19"/>
+        <v>133</v>
+      </c>
+      <c r="K129" s="10">
+        <f t="shared" si="20"/>
+        <v>132</v>
+      </c>
+      <c r="L129" s="10">
+        <f t="shared" si="21"/>
+        <v>10.95</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A130">
+        <v>133</v>
+      </c>
+      <c r="B130">
+        <v>125</v>
+      </c>
+      <c r="C130">
+        <v>0.52836185581187178</v>
+      </c>
+      <c r="D130">
+        <v>1.361354822388974</v>
+      </c>
+      <c r="E130">
+        <v>0.5283599290436013</v>
+      </c>
+      <c r="F130">
+        <v>1.3613524467366807</v>
+      </c>
+      <c r="G130" s="10">
+        <f t="shared" si="17"/>
+        <v>1.9804724574663206E-12</v>
+      </c>
+      <c r="H130" s="10">
+        <f t="shared" si="18"/>
+        <v>17.93</v>
+      </c>
+      <c r="J130" s="10">
+        <f t="shared" si="19"/>
+        <v>133</v>
+      </c>
+      <c r="K130" s="10">
+        <f t="shared" si="20"/>
+        <v>125</v>
+      </c>
+      <c r="L130" s="10">
+        <f t="shared" si="21"/>
+        <v>17.93</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A131">
+        <v>134</v>
+      </c>
+      <c r="B131">
+        <v>132</v>
+      </c>
+      <c r="C131">
+        <v>0.52836409835837506</v>
+      </c>
+      <c r="D131">
+        <v>1.3613578259721604</v>
+      </c>
+      <c r="E131">
+        <v>0.52836245271447591</v>
+      </c>
+      <c r="F131">
+        <v>1.3613566881459442</v>
+      </c>
+      <c r="G131" s="10">
+        <f t="shared" si="17"/>
+        <v>9.1844341316801279E-13</v>
+      </c>
+      <c r="H131" s="10">
+        <f t="shared" si="18"/>
+        <v>12.21</v>
+      </c>
+      <c r="J131" s="10">
+        <f t="shared" si="19"/>
+        <v>134</v>
+      </c>
+      <c r="K131" s="10">
+        <f t="shared" si="20"/>
+        <v>132</v>
+      </c>
+      <c r="L131" s="10">
+        <f t="shared" si="21"/>
+        <v>12.21</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A132">
+        <v>134</v>
+      </c>
+      <c r="B132">
+        <v>135</v>
+      </c>
+      <c r="C132">
+        <v>0.52836409835837506</v>
+      </c>
+      <c r="D132">
+        <v>1.3613578259721604</v>
+      </c>
+      <c r="E132">
+        <v>0.5283664357347253</v>
+      </c>
+      <c r="F132">
+        <v>1.3613599921825001</v>
+      </c>
+      <c r="G132" s="10">
+        <f t="shared" si="17"/>
+        <v>2.240813892592986E-12</v>
+      </c>
+      <c r="H132" s="10">
+        <f t="shared" si="18"/>
+        <v>19.07</v>
+      </c>
+      <c r="J132" s="10">
+        <f t="shared" si="19"/>
+        <v>134</v>
+      </c>
+      <c r="K132" s="10">
+        <f t="shared" si="20"/>
+        <v>135</v>
+      </c>
+      <c r="L132" s="10">
+        <f t="shared" si="21"/>
+        <v>19.07</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A133">
+        <v>136</v>
+      </c>
+      <c r="B133">
+        <v>135</v>
+      </c>
+      <c r="C133">
+        <v>0.52836774580190016</v>
+      </c>
+      <c r="D133">
+        <v>1.3613619532046026</v>
+      </c>
+      <c r="E133">
+        <v>0.5283664357347253</v>
+      </c>
+      <c r="F133">
+        <v>1.3613599921825001</v>
+      </c>
+      <c r="G133" s="10">
+        <f t="shared" si="17"/>
+        <v>1.1461394805072977E-12</v>
+      </c>
+      <c r="H133" s="10">
+        <f t="shared" si="18"/>
+        <v>13.64</v>
+      </c>
+      <c r="J133" s="10">
+        <f t="shared" si="19"/>
+        <v>136</v>
+      </c>
+      <c r="K133" s="10">
+        <f t="shared" si="20"/>
+        <v>135</v>
+      </c>
+      <c r="L133" s="10">
+        <f t="shared" si="21"/>
+        <v>13.64</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A134">
+        <v>136</v>
+      </c>
+      <c r="B134">
+        <v>137</v>
+      </c>
+      <c r="C134">
+        <v>0.52836774580190016</v>
+      </c>
+      <c r="D134">
+        <v>1.3613619532046026</v>
+      </c>
+      <c r="E134">
+        <v>0.52836860666775132</v>
+      </c>
+      <c r="F134">
+        <v>1.3613649824643748</v>
+      </c>
+      <c r="G134" s="10">
+        <f t="shared" si="17"/>
+        <v>1.8963487073288062E-12</v>
+      </c>
+      <c r="H134" s="10">
+        <f t="shared" si="18"/>
+        <v>17.55</v>
+      </c>
+      <c r="J134" s="10">
+        <f t="shared" si="19"/>
+        <v>136</v>
+      </c>
+      <c r="K134" s="10">
+        <f t="shared" si="20"/>
+        <v>137</v>
+      </c>
+      <c r="L134" s="10">
+        <f t="shared" si="21"/>
+        <v>17.55</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A135">
+        <v>138</v>
+      </c>
+      <c r="B135">
+        <v>137</v>
+      </c>
+      <c r="C135">
+        <v>0.52836829367995097</v>
+      </c>
+      <c r="D135">
+        <v>1.3613677549574161</v>
+      </c>
+      <c r="E135">
+        <v>0.52836860666775132</v>
+      </c>
+      <c r="F135">
+        <v>1.3613649824643748</v>
+      </c>
+      <c r="G135" s="10">
+        <f t="shared" si="17"/>
+        <v>1.4577903614721738E-12</v>
+      </c>
+      <c r="H135" s="10">
+        <f t="shared" si="18"/>
+        <v>15.38</v>
+      </c>
+      <c r="J135" s="10">
+        <f t="shared" si="19"/>
+        <v>138</v>
+      </c>
+      <c r="K135" s="10">
+        <f t="shared" si="20"/>
+        <v>137</v>
+      </c>
+      <c r="L135" s="10">
+        <f t="shared" si="21"/>
+        <v>15.38</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A136">
+        <v>138</v>
+      </c>
+      <c r="B136">
+        <v>139</v>
+      </c>
+      <c r="C136">
+        <v>0.52836829367995097</v>
+      </c>
+      <c r="D136">
+        <v>1.3613677549574161</v>
+      </c>
+      <c r="E136">
+        <v>0.52836738618640711</v>
+      </c>
+      <c r="F136">
+        <v>1.3613699032543944</v>
+      </c>
+      <c r="G136" s="10">
+        <f t="shared" si="17"/>
+        <v>1.0664539927706398E-12</v>
+      </c>
+      <c r="H136" s="10">
+        <f t="shared" si="18"/>
+        <v>13.16</v>
+      </c>
+      <c r="J136" s="10">
+        <f t="shared" si="19"/>
+        <v>138</v>
+      </c>
+      <c r="K136" s="10">
+        <f t="shared" si="20"/>
+        <v>139</v>
+      </c>
+      <c r="L136" s="10">
+        <f t="shared" si="21"/>
+        <v>13.16</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A137">
+        <v>140</v>
+      </c>
+      <c r="B137">
+        <v>139</v>
+      </c>
+      <c r="C137">
+        <v>0.52836537320079136</v>
+      </c>
+      <c r="D137">
+        <v>1.3613715545606653</v>
+      </c>
+      <c r="E137">
+        <v>0.52836738618640711</v>
+      </c>
+      <c r="F137">
+        <v>1.3613699032543944</v>
+      </c>
+      <c r="G137" s="10">
+        <f t="shared" si="17"/>
+        <v>1.5214827315294439E-12</v>
+      </c>
+      <c r="H137" s="10">
+        <f t="shared" si="18"/>
+        <v>15.72</v>
+      </c>
+      <c r="J137" s="10">
+        <f t="shared" si="19"/>
+        <v>140</v>
+      </c>
+      <c r="K137" s="10">
+        <f t="shared" si="20"/>
+        <v>139</v>
+      </c>
+      <c r="L137" s="10">
+        <f t="shared" si="21"/>
+        <v>15.72</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A138">
+        <v>140</v>
+      </c>
+      <c r="B138">
+        <v>169</v>
+      </c>
+      <c r="C138">
+        <v>0.52836537320079136</v>
+      </c>
+      <c r="D138">
+        <v>1.3613715545606653</v>
+      </c>
+      <c r="E138">
+        <v>0.52836370412741784</v>
+      </c>
+      <c r="F138">
+        <v>1.3613716805718665</v>
+      </c>
+      <c r="G138" s="10">
+        <f t="shared" si="17"/>
+        <v>6.9941233193636854E-13</v>
+      </c>
+      <c r="H138" s="10">
+        <f t="shared" si="18"/>
+        <v>10.66</v>
+      </c>
+      <c r="J138" s="10">
+        <f t="shared" si="19"/>
+        <v>140</v>
+      </c>
+      <c r="K138" s="10">
+        <f t="shared" si="20"/>
+        <v>169</v>
+      </c>
+      <c r="L138" s="10">
+        <f t="shared" si="21"/>
+        <v>10.66</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A139">
+        <v>141</v>
+      </c>
+      <c r="B139">
+        <v>169</v>
+      </c>
+      <c r="C139">
+        <v>0.52836235657475938</v>
+      </c>
+      <c r="D139">
+        <v>1.3613710953034526</v>
+      </c>
+      <c r="E139">
+        <v>0.52836370412741784</v>
+      </c>
+      <c r="F139">
+        <v>1.3613716805718665</v>
+      </c>
+      <c r="G139" s="10">
+        <f t="shared" si="17"/>
+        <v>5.1784633347305402E-13</v>
+      </c>
+      <c r="H139" s="10">
+        <f t="shared" si="18"/>
+        <v>9.17</v>
+      </c>
+      <c r="J139" s="10">
+        <f t="shared" si="19"/>
+        <v>141</v>
+      </c>
+      <c r="K139" s="10">
+        <f t="shared" si="20"/>
+        <v>169</v>
+      </c>
+      <c r="L139" s="10">
+        <f t="shared" si="21"/>
+        <v>9.17</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A140">
+        <v>141</v>
+      </c>
+      <c r="B140">
+        <v>142</v>
+      </c>
+      <c r="C140">
+        <v>0.52836235657475938</v>
+      </c>
+      <c r="D140">
+        <v>1.3613710953034526</v>
+      </c>
+      <c r="E140">
+        <v>0.52835900568920335</v>
+      </c>
+      <c r="F140">
+        <v>1.3613689647919029</v>
+      </c>
+      <c r="G140" s="10">
+        <f t="shared" si="17"/>
+        <v>3.6534933938792839E-12</v>
+      </c>
+      <c r="H140" s="10">
+        <f t="shared" si="18"/>
+        <v>24.36</v>
+      </c>
+      <c r="J140" s="10">
+        <f t="shared" si="19"/>
+        <v>141</v>
+      </c>
+      <c r="K140" s="10">
+        <f t="shared" si="20"/>
+        <v>142</v>
+      </c>
+      <c r="L140" s="10">
+        <f t="shared" si="21"/>
+        <v>24.36</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A141">
+        <v>142</v>
+      </c>
+      <c r="B141">
+        <v>149</v>
+      </c>
+      <c r="C141">
+        <v>0.52835900568920335</v>
+      </c>
+      <c r="D141">
+        <v>1.3613689647919029</v>
+      </c>
+      <c r="E141">
+        <v>0.52835747154479074</v>
+      </c>
+      <c r="F141">
+        <v>1.3613675388579041</v>
+      </c>
+      <c r="G141" s="10">
+        <f t="shared" si="17"/>
+        <v>9.6754029125890086E-13</v>
+      </c>
+      <c r="H141" s="10">
+        <f t="shared" si="18"/>
+        <v>12.53</v>
+      </c>
+      <c r="J141" s="10">
+        <f t="shared" si="19"/>
+        <v>142</v>
+      </c>
+      <c r="K141" s="10">
+        <f t="shared" si="20"/>
+        <v>149</v>
+      </c>
+      <c r="L141" s="10">
+        <f t="shared" si="21"/>
+        <v>12.53</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A142">
+        <v>150</v>
+      </c>
+      <c r="B142">
+        <v>149</v>
+      </c>
+      <c r="C142">
+        <v>0.52835585908186966</v>
+      </c>
+      <c r="D142">
+        <v>1.3613647899425156</v>
+      </c>
+      <c r="E142">
+        <v>0.52835747154479074</v>
+      </c>
+      <c r="F142">
+        <v>1.3613675388579041</v>
+      </c>
+      <c r="G142" s="10">
+        <f t="shared" si="17"/>
+        <v>2.059054279485587E-12</v>
+      </c>
+      <c r="H142" s="10">
+        <f t="shared" si="18"/>
+        <v>18.28</v>
+      </c>
+      <c r="J142" s="10">
+        <f t="shared" si="19"/>
+        <v>150</v>
+      </c>
+      <c r="K142" s="10">
+        <f t="shared" si="20"/>
+        <v>149</v>
+      </c>
+      <c r="L142" s="10">
+        <f t="shared" si="21"/>
+        <v>18.28</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A143">
+        <v>150</v>
+      </c>
+      <c r="B143">
+        <v>151</v>
+      </c>
+      <c r="C143">
+        <v>0.52835585908186966</v>
+      </c>
+      <c r="D143">
+        <v>1.3613647899425156</v>
+      </c>
+      <c r="E143">
+        <v>0.52835506233871699</v>
+      </c>
+      <c r="F143">
+        <v>1.3613622637447531</v>
+      </c>
+      <c r="G143" s="10">
+        <f t="shared" si="17"/>
+        <v>1.3486738666560126E-12</v>
+      </c>
+      <c r="H143" s="10">
+        <f t="shared" si="18"/>
+        <v>14.8</v>
+      </c>
+      <c r="J143" s="10">
+        <f t="shared" si="19"/>
+        <v>150</v>
+      </c>
+      <c r="K143" s="10">
+        <f t="shared" si="20"/>
+        <v>151</v>
+      </c>
+      <c r="L143" s="10">
+        <f t="shared" si="21"/>
+        <v>14.8</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A144">
+        <v>152</v>
+      </c>
+      <c r="B144">
+        <v>151</v>
+      </c>
+      <c r="C144">
+        <v>0.52835557299116387</v>
+      </c>
+      <c r="D144">
+        <v>1.3613599128932394</v>
+      </c>
+      <c r="E144">
+        <v>0.52835506233871699</v>
+      </c>
+      <c r="F144">
+        <v>1.3613622637447531</v>
+      </c>
+      <c r="G144" s="10">
+        <f t="shared" si="17"/>
+        <v>1.0957039074796661E-12</v>
+      </c>
+      <c r="H144" s="10">
+        <f t="shared" si="18"/>
+        <v>13.34</v>
+      </c>
+      <c r="J144" s="10">
+        <f t="shared" si="19"/>
+        <v>152</v>
+      </c>
+      <c r="K144" s="10">
+        <f t="shared" si="20"/>
+        <v>151</v>
+      </c>
+      <c r="L144" s="10">
+        <f t="shared" si="21"/>
+        <v>13.34</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A145">
+        <v>152</v>
+      </c>
+      <c r="B145">
+        <v>128</v>
+      </c>
+      <c r="C145">
+        <v>0.52835557299116387</v>
+      </c>
+      <c r="D145">
+        <v>1.3613599128932394</v>
+      </c>
+      <c r="E145">
+        <v>0.52835720625474447</v>
+      </c>
+      <c r="F145">
+        <v>1.3613569359826982</v>
+      </c>
+      <c r="G145" s="10">
+        <f t="shared" si="17"/>
+        <v>2.3193585327663982E-12</v>
+      </c>
+      <c r="H145" s="10">
+        <f t="shared" si="18"/>
+        <v>19.41</v>
+      </c>
+      <c r="J145" s="10">
+        <f t="shared" si="19"/>
+        <v>152</v>
+      </c>
+      <c r="K145" s="10">
+        <f t="shared" si="20"/>
+        <v>128</v>
+      </c>
+      <c r="L145" s="10">
+        <f t="shared" si="21"/>
+        <v>19.41</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A146">
+        <v>137</v>
+      </c>
+      <c r="B146">
+        <v>153</v>
+      </c>
+      <c r="C146">
+        <v>0.52836860666775132</v>
+      </c>
+      <c r="D146">
+        <v>1.3613649824643748</v>
+      </c>
+      <c r="E146">
+        <v>0.52837014088983092</v>
+      </c>
+      <c r="F146">
+        <v>1.3613649313360017</v>
+      </c>
+      <c r="G146" s="10">
+        <f t="shared" si="17"/>
+        <v>5.889467856914643E-13</v>
+      </c>
+      <c r="H146" s="10">
+        <f t="shared" si="18"/>
+        <v>9.7799999999999994</v>
+      </c>
+      <c r="J146" s="10">
+        <f t="shared" si="19"/>
+        <v>137</v>
+      </c>
+      <c r="K146" s="10">
+        <f t="shared" si="20"/>
+        <v>153</v>
+      </c>
+      <c r="L146" s="10">
+        <f t="shared" si="21"/>
+        <v>9.7799999999999994</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A147">
+        <v>154</v>
+      </c>
+      <c r="B147">
+        <v>153</v>
+      </c>
+      <c r="C147">
+        <v>0.52837139584858384</v>
+      </c>
+      <c r="D147">
+        <v>1.3613664257582909</v>
+      </c>
+      <c r="E147">
+        <v>0.52837014088983092</v>
+      </c>
+      <c r="F147">
+        <v>1.3613649313360017</v>
+      </c>
+      <c r="G147" s="10">
+        <f t="shared" si="17"/>
+        <v>8.1016004769128891E-13</v>
+      </c>
+      <c r="H147" s="10">
+        <f t="shared" si="18"/>
+        <v>11.47</v>
+      </c>
+      <c r="J147" s="10">
+        <f t="shared" si="19"/>
+        <v>154</v>
+      </c>
+      <c r="K147" s="10">
+        <f t="shared" si="20"/>
+        <v>153</v>
+      </c>
+      <c r="L147" s="10">
+        <f t="shared" si="21"/>
+        <v>11.47</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A148">
+        <v>154</v>
+      </c>
+      <c r="B148">
+        <v>155</v>
+      </c>
+      <c r="C148">
+        <v>0.52837139584858384</v>
+      </c>
+      <c r="D148">
+        <v>1.3613664257582909</v>
+      </c>
+      <c r="E148">
+        <v>0.52836967759811515</v>
+      </c>
+      <c r="F148">
+        <v>1.3613687430205943</v>
+      </c>
+      <c r="G148" s="10">
+        <f t="shared" si="17"/>
+        <v>1.7393530476500526E-12</v>
+      </c>
+      <c r="H148" s="10">
+        <f t="shared" si="18"/>
+        <v>16.8</v>
+      </c>
+      <c r="J148" s="10">
+        <f t="shared" si="19"/>
+        <v>154</v>
+      </c>
+      <c r="K148" s="10">
+        <f t="shared" si="20"/>
+        <v>155</v>
+      </c>
+      <c r="L148" s="10">
+        <f t="shared" si="21"/>
+        <v>16.8</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A149">
+        <v>153</v>
+      </c>
+      <c r="B149">
+        <v>156</v>
+      </c>
+      <c r="C149">
+        <v>0.52837014088983092</v>
+      </c>
+      <c r="D149">
+        <v>1.3613649313360017</v>
+      </c>
+      <c r="E149">
+        <v>0.52837253722689403</v>
+      </c>
+      <c r="F149">
+        <v>1.3613639382436573</v>
+      </c>
+      <c r="G149" s="10">
+        <f t="shared" si="17"/>
+        <v>1.6195045489911698E-12</v>
+      </c>
+      <c r="H149" s="10">
+        <f t="shared" si="18"/>
+        <v>16.22</v>
+      </c>
+      <c r="J149" s="10">
+        <f t="shared" si="19"/>
+        <v>153</v>
+      </c>
+      <c r="K149" s="10">
+        <f t="shared" si="20"/>
+        <v>156</v>
+      </c>
+      <c r="L149" s="10">
+        <f t="shared" si="21"/>
+        <v>16.22</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A150">
+        <v>157</v>
+      </c>
+      <c r="B150">
+        <v>156</v>
+      </c>
+      <c r="C150">
+        <v>0.52837378862796769</v>
+      </c>
+      <c r="D150">
+        <v>1.3613627863263507</v>
+      </c>
+      <c r="E150">
+        <v>0.52837253722689403</v>
+      </c>
+      <c r="F150">
+        <v>1.3613639382436573</v>
+      </c>
+      <c r="G150" s="10">
+        <f t="shared" si="17"/>
+        <v>6.389220687780111E-13</v>
+      </c>
+      <c r="H150" s="10">
+        <f t="shared" si="18"/>
+        <v>10.19</v>
+      </c>
+      <c r="J150" s="10">
+        <f t="shared" si="19"/>
+        <v>157</v>
+      </c>
+      <c r="K150" s="10">
+        <f t="shared" si="20"/>
+        <v>156</v>
+      </c>
+      <c r="L150" s="10">
+        <f t="shared" si="21"/>
+        <v>10.19</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A151">
+        <v>157</v>
+      </c>
+      <c r="B151">
+        <v>158</v>
+      </c>
+      <c r="C151">
+        <v>0.52837378862796769</v>
+      </c>
+      <c r="D151">
+        <v>1.3613627863263507</v>
+      </c>
+      <c r="E151">
+        <v>0.52837530357375839</v>
+      </c>
+      <c r="F151">
+        <v>1.3613609624572827</v>
+      </c>
+      <c r="G151" s="10">
+        <f t="shared" si="17"/>
+        <v>1.194034653204987E-12</v>
+      </c>
+      <c r="H151" s="10">
+        <f t="shared" si="18"/>
+        <v>13.92</v>
+      </c>
+      <c r="J151" s="10">
+        <f t="shared" si="19"/>
+        <v>157</v>
+      </c>
+      <c r="K151" s="10">
+        <f t="shared" si="20"/>
+        <v>158</v>
+      </c>
+      <c r="L151" s="10">
+        <f t="shared" si="21"/>
+        <v>13.92</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A152">
+        <v>159</v>
+      </c>
+      <c r="B152">
+        <v>158</v>
+      </c>
+      <c r="C152">
+        <v>0.52838090782598657</v>
+      </c>
+      <c r="D152">
+        <v>1.3613494310669145</v>
+      </c>
+      <c r="E152">
+        <v>0.52837530357375839</v>
+      </c>
+      <c r="F152">
+        <v>1.3613609624572827</v>
+      </c>
+      <c r="G152" s="10">
+        <f t="shared" si="17"/>
+        <v>3.2646369420794826E-11</v>
+      </c>
+      <c r="H152" s="10">
+        <f t="shared" si="18"/>
+        <v>72.8</v>
+      </c>
+      <c r="J152" s="10">
+        <f t="shared" si="19"/>
+        <v>159</v>
+      </c>
+      <c r="K152" s="10">
+        <f t="shared" si="20"/>
+        <v>158</v>
+      </c>
+      <c r="L152" s="10">
+        <f t="shared" si="21"/>
+        <v>72.8</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A153">
+        <v>159</v>
+      </c>
+      <c r="B153">
+        <v>160</v>
+      </c>
+      <c r="C153">
+        <v>0.52838090782598657</v>
+      </c>
+      <c r="D153">
+        <v>1.3613494310669145</v>
+      </c>
+      <c r="E153">
+        <v>0.52837985358271566</v>
+      </c>
+      <c r="F153">
+        <v>1.3613482179906533</v>
+      </c>
+      <c r="G153" s="10">
+        <f t="shared" si="17"/>
+        <v>5.5224599090692824E-13</v>
+      </c>
+      <c r="H153" s="10">
+        <f t="shared" si="18"/>
+        <v>9.4700000000000006</v>
+      </c>
+      <c r="J153" s="10">
+        <f t="shared" si="19"/>
+        <v>159</v>
+      </c>
+      <c r="K153" s="10">
+        <f t="shared" si="20"/>
+        <v>160</v>
+      </c>
+      <c r="L153" s="10">
+        <f t="shared" si="21"/>
+        <v>9.4700000000000006</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A154">
+        <v>161</v>
+      </c>
+      <c r="B154">
+        <v>160</v>
+      </c>
+      <c r="C154">
+        <v>0.52837505825795816</v>
+      </c>
+      <c r="D154">
+        <v>1.3613427002079703</v>
+      </c>
+      <c r="E154">
+        <v>0.52837985358271566</v>
+      </c>
+      <c r="F154">
+        <v>1.3613482179906533</v>
+      </c>
+      <c r="G154" s="10">
+        <f t="shared" si="17"/>
+        <v>1.1425809730693575E-11</v>
+      </c>
+      <c r="H154" s="10">
+        <f t="shared" si="18"/>
+        <v>43.07</v>
+      </c>
+      <c r="J154" s="10">
+        <f t="shared" si="19"/>
+        <v>161</v>
+      </c>
+      <c r="K154" s="10">
+        <f t="shared" si="20"/>
+        <v>160</v>
+      </c>
+      <c r="L154" s="10">
+        <f t="shared" si="21"/>
+        <v>43.07</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A155">
+        <v>161</v>
+      </c>
+      <c r="B155">
+        <v>162</v>
+      </c>
+      <c r="C155">
+        <v>0.52837505825795816</v>
+      </c>
+      <c r="D155">
+        <v>1.3613427002079703</v>
+      </c>
+      <c r="E155">
+        <v>0.52837362107635955</v>
+      </c>
+      <c r="F155">
+        <v>1.3613410465051878</v>
+      </c>
+      <c r="G155" s="10">
+        <f t="shared" si="17"/>
+        <v>1.0262998516674233E-12</v>
+      </c>
+      <c r="H155" s="10">
+        <f t="shared" si="18"/>
+        <v>12.91</v>
+      </c>
+      <c r="J155" s="10">
+        <f t="shared" si="19"/>
+        <v>161</v>
+      </c>
+      <c r="K155" s="10">
+        <f t="shared" si="20"/>
+        <v>162</v>
+      </c>
+      <c r="L155" s="10">
+        <f t="shared" si="21"/>
+        <v>12.91</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A156">
+        <v>163</v>
+      </c>
+      <c r="B156">
+        <v>162</v>
+      </c>
+      <c r="C156">
+        <v>0.5283715231796029</v>
+      </c>
+      <c r="D156">
+        <v>1.3613426105327788</v>
+      </c>
+      <c r="E156">
+        <v>0.52837362107635955</v>
+      </c>
+      <c r="F156">
+        <v>1.3613410465051878</v>
+      </c>
+      <c r="G156" s="10">
+        <f t="shared" si="17"/>
+        <v>1.5564166833176438E-12</v>
+      </c>
+      <c r="H156" s="10">
+        <f t="shared" si="18"/>
+        <v>15.9</v>
+      </c>
+      <c r="J156" s="10">
+        <f t="shared" si="19"/>
+        <v>163</v>
+      </c>
+      <c r="K156" s="10">
+        <f t="shared" si="20"/>
+        <v>162</v>
+      </c>
+      <c r="L156" s="10">
+        <f t="shared" si="21"/>
+        <v>15.9</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A157">
+        <v>163</v>
+      </c>
+      <c r="B157">
+        <v>164</v>
+      </c>
+      <c r="C157">
+        <v>0.5283715231796029</v>
+      </c>
+      <c r="D157">
+        <v>1.3613426105327788</v>
+      </c>
+      <c r="E157">
+        <v>0.52836858231080897</v>
+      </c>
+      <c r="F157">
+        <v>1.3613445040024363</v>
+      </c>
+      <c r="G157" s="10">
+        <f t="shared" si="17"/>
+        <v>2.8306937146278988E-12</v>
+      </c>
+      <c r="H157" s="10">
+        <f t="shared" si="18"/>
+        <v>21.44</v>
+      </c>
+      <c r="J157" s="10">
+        <f t="shared" si="19"/>
+        <v>163</v>
+      </c>
+      <c r="K157" s="10">
+        <f t="shared" si="20"/>
+        <v>164</v>
+      </c>
+      <c r="L157" s="10">
+        <f t="shared" si="21"/>
+        <v>21.44</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A158">
+        <v>165</v>
+      </c>
+      <c r="B158">
+        <v>164</v>
+      </c>
+      <c r="C158">
+        <v>0.528367100526274</v>
+      </c>
+      <c r="D158">
+        <v>1.361342957640719</v>
+      </c>
+      <c r="E158">
+        <v>0.52836858231080897</v>
+      </c>
+      <c r="F158">
+        <v>1.3613445040024363</v>
+      </c>
+      <c r="G158" s="10">
+        <f t="shared" si="17"/>
+        <v>9.9480204269996422E-13</v>
+      </c>
+      <c r="H158" s="10">
+        <f t="shared" si="18"/>
+        <v>12.71</v>
+      </c>
+      <c r="J158" s="10">
+        <f t="shared" si="19"/>
+        <v>165</v>
+      </c>
+      <c r="K158" s="10">
+        <f t="shared" si="20"/>
+        <v>164</v>
+      </c>
+      <c r="L158" s="10">
+        <f t="shared" si="21"/>
+        <v>12.71</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A159">
+        <v>166</v>
+      </c>
+      <c r="B159">
+        <v>164</v>
+      </c>
+      <c r="C159">
+        <v>0.52836756303852583</v>
+      </c>
+      <c r="D159">
+        <v>1.3613454342629276</v>
+      </c>
+      <c r="E159">
+        <v>0.52836858231080897</v>
+      </c>
+      <c r="F159">
+        <v>1.3613445040024363</v>
+      </c>
+      <c r="G159" s="10">
+        <f t="shared" si="17"/>
+        <v>4.210925773990652E-13</v>
+      </c>
+      <c r="H159" s="10">
+        <f t="shared" si="18"/>
+        <v>8.27</v>
+      </c>
+      <c r="J159" s="10">
+        <f t="shared" si="19"/>
+        <v>166</v>
+      </c>
+      <c r="K159" s="10">
+        <f t="shared" si="20"/>
+        <v>164</v>
+      </c>
+      <c r="L159" s="10">
+        <f t="shared" si="21"/>
+        <v>8.27</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A160">
+        <v>166</v>
+      </c>
+      <c r="B160">
+        <v>167</v>
+      </c>
+      <c r="C160">
+        <v>0.52836756303852583</v>
+      </c>
+      <c r="D160">
+        <v>1.3613454342629276</v>
+      </c>
+      <c r="E160">
+        <v>0.52836795748293675</v>
+      </c>
+      <c r="F160">
+        <v>1.3613460660721168</v>
+      </c>
+      <c r="G160" s="10">
+        <f t="shared" si="17"/>
+        <v>1.1333009194104806E-13</v>
+      </c>
+      <c r="H160" s="10">
+        <f t="shared" si="18"/>
+        <v>4.29</v>
+      </c>
+      <c r="J160" s="10">
+        <f t="shared" si="19"/>
+        <v>166</v>
+      </c>
+      <c r="K160" s="10">
+        <f t="shared" si="20"/>
+        <v>167</v>
+      </c>
+      <c r="L160" s="10">
+        <f t="shared" si="21"/>
+        <v>4.29</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A161">
+        <v>168</v>
+      </c>
+      <c r="B161">
+        <v>167</v>
+      </c>
+      <c r="C161">
+        <v>0.5283704742477181</v>
+      </c>
+      <c r="D161">
+        <v>1.3613445371636921</v>
+      </c>
+      <c r="E161">
+        <v>0.52836795748293675</v>
+      </c>
+      <c r="F161">
+        <v>1.3613460660721168</v>
+      </c>
+      <c r="G161" s="10">
+        <f t="shared" si="17"/>
+        <v>2.0193980059135426E-12</v>
+      </c>
+      <c r="H161" s="10">
+        <f t="shared" si="18"/>
+        <v>18.11</v>
+      </c>
+      <c r="J161" s="10">
+        <f t="shared" si="19"/>
+        <v>168</v>
+      </c>
+      <c r="K161" s="10">
+        <f t="shared" si="20"/>
+        <v>167</v>
+      </c>
+      <c r="L161" s="10">
+        <f t="shared" si="21"/>
+        <v>18.11</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A162">
+        <v>166</v>
+      </c>
+      <c r="B162">
+        <v>124</v>
+      </c>
+      <c r="C162">
+        <v>0.52836756303852583</v>
+      </c>
+      <c r="D162">
+        <v>1.3613454342629276</v>
+      </c>
+      <c r="E162">
+        <v>0.52836435064118059</v>
+      </c>
+      <c r="F162">
+        <v>1.3613483820191399</v>
+      </c>
+      <c r="G162" s="10">
+        <f t="shared" si="17"/>
+        <v>4.2001187221929123E-12</v>
+      </c>
+      <c r="H162" s="10">
+        <f t="shared" si="18"/>
+        <v>26.11</v>
+      </c>
+      <c r="J162" s="10">
+        <f t="shared" si="19"/>
+        <v>166</v>
+      </c>
+      <c r="K162" s="10">
+        <f t="shared" si="20"/>
+        <v>124</v>
+      </c>
+      <c r="L162" s="10">
+        <f t="shared" si="21"/>
+        <v>26.11</v>
+      </c>
+    </row>
+    <row r="163" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A163">
+        <v>81</v>
+      </c>
+      <c r="B163">
+        <v>163</v>
+      </c>
+      <c r="C163">
+        <v>0.52837302038290024</v>
+      </c>
+      <c r="D163">
+        <v>1.3613445394806167</v>
+      </c>
+      <c r="E163">
+        <v>0.5283715231796029</v>
+      </c>
+      <c r="F163">
+        <v>1.3613426105327788</v>
+      </c>
+      <c r="G163" s="10">
+        <f t="shared" si="17"/>
+        <v>1.2542058851161243E-12</v>
+      </c>
+      <c r="H163" s="10">
+        <f t="shared" si="18"/>
+        <v>14.27</v>
+      </c>
+      <c r="J163" s="10">
+        <f t="shared" si="19"/>
+        <v>81</v>
+      </c>
+      <c r="K163" s="10">
+        <f t="shared" si="20"/>
+        <v>163</v>
+      </c>
+      <c r="L163" s="10">
+        <f t="shared" si="21"/>
+        <v>14.27</v>
+      </c>
+    </row>
+    <row r="164" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A164">
+        <v>161</v>
+      </c>
+      <c r="B164">
+        <v>77</v>
+      </c>
+      <c r="C164">
+        <v>0.52837505825795816</v>
+      </c>
+      <c r="D164">
+        <v>1.3613427002079703</v>
+      </c>
+      <c r="E164">
+        <v>0.52837392167494013</v>
+      </c>
+      <c r="F164">
+        <v>1.3613440953707672</v>
+      </c>
+      <c r="G164" s="10">
+        <f t="shared" si="17"/>
+        <v>6.8590197017899799E-13</v>
+      </c>
+      <c r="H164" s="10">
+        <f t="shared" si="18"/>
+        <v>10.55</v>
+      </c>
+      <c r="J164" s="10">
+        <f t="shared" si="19"/>
+        <v>161</v>
+      </c>
+      <c r="K164" s="10">
+        <f t="shared" si="20"/>
+        <v>77</v>
+      </c>
+      <c r="L164" s="10">
+        <f t="shared" si="21"/>
+        <v>10.55</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A165">
+        <v>160</v>
+      </c>
+      <c r="B165">
+        <v>96</v>
+      </c>
+      <c r="C165">
+        <v>0.52837985358271566</v>
+      </c>
+      <c r="D165">
+        <v>1.3613482179906533</v>
+      </c>
+      <c r="E165">
+        <v>0.52837868998043003</v>
+      </c>
+      <c r="F165">
+        <v>1.3613496480301903</v>
+      </c>
+      <c r="G165" s="10">
+        <f t="shared" si="17"/>
+        <v>7.1981010776393823E-13</v>
+      </c>
+      <c r="H165" s="10">
+        <f t="shared" si="18"/>
+        <v>10.81</v>
+      </c>
+      <c r="J165" s="10">
+        <f t="shared" si="19"/>
+        <v>160</v>
+      </c>
+      <c r="K165" s="10">
+        <f t="shared" si="20"/>
+        <v>96</v>
+      </c>
+      <c r="L165" s="10">
+        <f t="shared" si="21"/>
+        <v>10.81</v>
+      </c>
+    </row>
+    <row r="166" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A166">
+        <v>143</v>
+      </c>
+      <c r="B166">
+        <v>142</v>
+      </c>
+      <c r="C166">
+        <v>0.52835409953638734</v>
+      </c>
+      <c r="D166">
+        <v>1.3613740047369469</v>
+      </c>
+      <c r="E166">
+        <v>0.52835900568920335</v>
+      </c>
+      <c r="F166">
+        <v>1.3613689647919029</v>
+      </c>
+      <c r="G166" s="10">
+        <f t="shared" si="17"/>
+        <v>1.0754043182260575E-11</v>
+      </c>
+      <c r="H166" s="10">
+        <f t="shared" si="18"/>
+        <v>41.79</v>
+      </c>
+      <c r="J166" s="10">
+        <f t="shared" si="19"/>
+        <v>143</v>
+      </c>
+      <c r="K166" s="10">
+        <f t="shared" si="20"/>
+        <v>142</v>
+      </c>
+      <c r="L166" s="10">
+        <f t="shared" si="21"/>
+        <v>41.79</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A167">
+        <v>143</v>
+      </c>
+      <c r="B167">
+        <v>144</v>
+      </c>
+      <c r="C167">
+        <v>0.52835409953638734</v>
+      </c>
+      <c r="D167">
+        <v>1.3613740047369469</v>
+      </c>
+      <c r="E167">
+        <v>0.52835456701706784</v>
+      </c>
+      <c r="F167">
+        <v>1.3613746298145757</v>
+      </c>
+      <c r="G167" s="10">
+        <f t="shared" si="17"/>
+        <v>1.274915403557622E-13</v>
+      </c>
+      <c r="H167" s="10">
+        <f t="shared" si="18"/>
+        <v>4.55</v>
+      </c>
+      <c r="J167" s="10">
+        <f t="shared" si="19"/>
+        <v>143</v>
+      </c>
+      <c r="K167" s="10">
+        <f t="shared" si="20"/>
+        <v>144</v>
+      </c>
+      <c r="L167" s="10">
+        <f t="shared" si="21"/>
+        <v>4.55</v>
+      </c>
+    </row>
+    <row r="168" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A168">
+        <v>145</v>
+      </c>
+      <c r="B168">
+        <v>144</v>
+      </c>
+      <c r="C168">
+        <v>0.52835362702392252</v>
+      </c>
+      <c r="D168">
+        <v>1.3613754958621349</v>
+      </c>
+      <c r="E168">
+        <v>0.52835456701706784</v>
+      </c>
+      <c r="F168">
+        <v>1.3613746298145757</v>
+      </c>
+      <c r="G168" s="10">
+        <f t="shared" si="17"/>
+        <v>3.6075465769109778E-13</v>
+      </c>
+      <c r="H168" s="10">
+        <f t="shared" si="18"/>
+        <v>7.65</v>
+      </c>
+      <c r="J168" s="10">
+        <f t="shared" si="19"/>
+        <v>145</v>
+      </c>
+      <c r="K168" s="10">
+        <f t="shared" si="20"/>
+        <v>144</v>
+      </c>
+      <c r="L168" s="10">
+        <f t="shared" si="21"/>
+        <v>7.65</v>
+      </c>
+    </row>
+    <row r="169" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A169">
+        <v>145</v>
+      </c>
+      <c r="B169">
+        <v>146</v>
+      </c>
+      <c r="C169">
+        <v>0.52835362702392252</v>
+      </c>
+      <c r="D169">
+        <v>1.3613754958621349</v>
+      </c>
+      <c r="E169">
+        <v>0.52835331369281591</v>
+      </c>
+      <c r="F169">
+        <v>1.3613750979483588</v>
+      </c>
+      <c r="G169" s="10">
+        <f t="shared" si="17"/>
+        <v>5.4068539244151347E-14</v>
+      </c>
+      <c r="H169" s="10">
+        <f t="shared" si="18"/>
+        <v>2.96</v>
+      </c>
+      <c r="J169" s="10">
+        <f t="shared" si="19"/>
+        <v>145</v>
+      </c>
+      <c r="K169" s="10">
+        <f t="shared" si="20"/>
+        <v>146</v>
+      </c>
+      <c r="L169" s="10">
+        <f t="shared" si="21"/>
+        <v>2.96</v>
+      </c>
+    </row>
+    <row r="170" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A170">
+        <v>143</v>
+      </c>
+      <c r="B170">
+        <v>147</v>
+      </c>
+      <c r="C170">
+        <v>0.52835409953638734</v>
+      </c>
+      <c r="D170">
+        <v>1.3613740047369469</v>
+      </c>
+      <c r="E170">
+        <v>0.52835155313329729</v>
+      </c>
+      <c r="F170">
+        <v>1.3613766250419901</v>
+      </c>
+      <c r="G170" s="10">
+        <f t="shared" si="17"/>
+        <v>2.9013305560320814E-12</v>
+      </c>
+      <c r="H170" s="10">
+        <f t="shared" si="18"/>
+        <v>21.7</v>
+      </c>
+      <c r="J170" s="10">
+        <f t="shared" si="19"/>
+        <v>143</v>
+      </c>
+      <c r="K170" s="10">
+        <f t="shared" si="20"/>
+        <v>147</v>
+      </c>
+      <c r="L170" s="10">
+        <f t="shared" si="21"/>
+        <v>21.7</v>
+      </c>
+    </row>
+    <row r="171" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A171">
+        <v>148</v>
+      </c>
+      <c r="B171">
+        <v>147</v>
+      </c>
+      <c r="C171">
+        <v>0.52834999629960444</v>
+      </c>
+      <c r="D171">
+        <v>1.3613746545652643</v>
+      </c>
+      <c r="E171">
+        <v>0.52835155313329729</v>
+      </c>
+      <c r="F171">
+        <v>1.3613766250419901</v>
+      </c>
+      <c r="G171" s="10">
+        <f t="shared" si="17"/>
+        <v>1.3299481108879596E-12</v>
+      </c>
+      <c r="H171" s="10">
+        <f t="shared" si="18"/>
+        <v>14.69</v>
+      </c>
+      <c r="J171" s="10">
+        <f t="shared" si="19"/>
+        <v>148</v>
+      </c>
+      <c r="K171" s="10">
+        <f t="shared" si="20"/>
+        <v>147</v>
+      </c>
+      <c r="L171" s="10">
+        <f t="shared" si="21"/>
+        <v>14.69</v>
+      </c>
+    </row>
+    <row r="172" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A172">
+        <v>148</v>
+      </c>
+      <c r="B172">
+        <v>149</v>
+      </c>
+      <c r="C172">
+        <v>0.52834999629960444</v>
+      </c>
+      <c r="D172">
+        <v>1.3613746545652643</v>
+      </c>
+      <c r="E172">
+        <v>0.52835747154479074</v>
+      </c>
+      <c r="F172">
+        <v>1.3613675388579041</v>
+      </c>
+      <c r="G172" s="10">
+        <f t="shared" si="17"/>
+        <v>2.3411296548529396E-11</v>
+      </c>
+      <c r="H172" s="10">
+        <f t="shared" si="18"/>
+        <v>61.65</v>
+      </c>
+      <c r="J172" s="10">
+        <f t="shared" si="19"/>
+        <v>148</v>
+      </c>
+      <c r="K172" s="10">
+        <f t="shared" si="20"/>
+        <v>149</v>
+      </c>
+      <c r="L172" s="10">
+        <f t="shared" si="21"/>
+        <v>61.65</v>
       </c>
     </row>
   </sheetData>
@@ -8990,13 +12323,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F97DB96-2C64-4545-81FD-85C8DF0934E7}">
   <dimension ref="A1:H119"/>
   <sheetViews>
-    <sheetView topLeftCell="A101" workbookViewId="0">
+    <sheetView topLeftCell="A67" workbookViewId="0">
       <selection activeCell="H119" sqref="F3:H119"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="22" t="s">
         <v>22</v>
       </c>
@@ -9008,7 +12341,7 @@
       <c r="G1" s="22"/>
       <c r="H1" s="22"/>
     </row>
-    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
         <v>14</v>
       </c>
@@ -9031,7 +12364,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="10">
         <v>1</v>
       </c>
@@ -9057,7 +12390,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="10">
         <v>2</v>
       </c>
@@ -9083,7 +12416,7 @@
         <v>2.5299999999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="10">
         <v>2</v>
       </c>
@@ -9109,7 +12442,7 @@
         <v>7.36</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="10">
         <v>4</v>
       </c>
@@ -9135,7 +12468,7 @@
         <v>9.8699999999999992</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="10">
         <v>5</v>
       </c>
@@ -9161,7 +12494,7 @@
         <v>5.59</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="10">
         <v>5</v>
       </c>
@@ -9187,7 +12520,7 @@
         <v>3.67</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="10">
         <v>7</v>
       </c>
@@ -9213,7 +12546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="10">
         <v>8</v>
       </c>
@@ -9239,7 +12572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="10">
         <v>7</v>
       </c>
@@ -9265,7 +12598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="10">
         <v>12</v>
       </c>
@@ -9291,7 +12624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="10">
         <v>11</v>
       </c>
@@ -9317,7 +12650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="10">
         <v>12</v>
       </c>
@@ -9343,7 +12676,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="10">
         <v>53</v>
       </c>
@@ -9369,7 +12702,7 @@
         <v>4.78</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="10">
         <v>13</v>
       </c>
@@ -9395,7 +12728,7 @@
         <v>8.36</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="10">
         <v>15</v>
       </c>
@@ -9421,7 +12754,7 @@
         <v>6.35</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="10">
         <v>54</v>
       </c>
@@ -9447,7 +12780,7 @@
         <v>11.39</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="10">
         <v>16</v>
       </c>
@@ -9473,7 +12806,7 @@
         <v>6.96</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="10">
         <v>16</v>
       </c>
@@ -9499,7 +12832,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="10">
         <v>16</v>
       </c>
@@ -9525,7 +12858,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="10">
         <v>19</v>
       </c>
@@ -9551,7 +12884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="10">
         <v>19</v>
       </c>
@@ -9577,7 +12910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="10">
         <v>18</v>
       </c>
@@ -9603,7 +12936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="10">
         <v>22</v>
       </c>
@@ -9629,7 +12962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="10">
         <v>22</v>
       </c>
@@ -9655,7 +12988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="10">
         <v>23</v>
       </c>
@@ -9681,7 +13014,7 @@
         <v>8.82</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="10">
         <v>25</v>
       </c>
@@ -9707,7 +13040,7 @@
         <v>4.7699999999999996</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="10">
         <v>23</v>
       </c>
@@ -9733,7 +13066,7 @@
         <v>10.61</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="10">
         <v>27</v>
       </c>
@@ -9759,7 +13092,7 @@
         <v>8.6300000000000008</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="10">
         <v>27</v>
       </c>
@@ -9785,7 +13118,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="10">
         <v>27</v>
       </c>
@@ -9811,7 +13144,7 @@
         <v>2.08</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="10">
         <v>26</v>
       </c>
@@ -9834,7 +13167,7 @@
         <v>4.3099999999999996</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="10">
         <v>109</v>
       </c>
@@ -9857,7 +13190,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="10">
         <v>109</v>
       </c>
@@ -9880,7 +13213,7 @@
         <v>6.27</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="10">
         <v>109</v>
       </c>
@@ -9903,7 +13236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="10">
         <v>111</v>
       </c>
@@ -9926,7 +13259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="10">
         <v>113</v>
       </c>
@@ -9949,7 +13282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="10">
         <v>113</v>
       </c>
@@ -9972,7 +13305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="10">
         <v>114</v>
       </c>
@@ -9995,7 +13328,7 @@
         <v>5.58</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="10">
         <v>116</v>
       </c>
@@ -10018,7 +13351,7 @@
         <v>2.67</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="10">
         <v>116</v>
       </c>
@@ -10044,7 +13377,7 @@
         <v>1.43</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="10">
         <v>30</v>
       </c>
@@ -10070,7 +13403,7 @@
         <v>1.21</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="10">
         <v>30</v>
       </c>
@@ -10093,7 +13426,7 @@
         <v>2.89</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" s="10">
         <v>115</v>
       </c>
@@ -10119,7 +13452,7 @@
         <v>10.220000000000001</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" s="10">
         <v>33</v>
       </c>
@@ -10145,7 +13478,7 @@
         <v>4.38</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" s="10">
         <v>34</v>
       </c>
@@ -10171,7 +13504,7 @@
         <v>3.85</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="10">
         <v>34</v>
       </c>
@@ -10197,7 +13530,7 @@
         <v>4.3499999999999996</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" s="10">
         <v>36</v>
       </c>
@@ -10223,7 +13556,7 @@
         <v>3.82</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50" s="10">
         <v>37</v>
       </c>
@@ -10249,7 +13582,7 @@
         <v>10.41</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A51" s="10">
         <v>37</v>
       </c>
@@ -10275,7 +13608,7 @@
         <v>2.35</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52" s="10">
         <v>39</v>
       </c>
@@ -10301,7 +13634,7 @@
         <v>1.06</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A53" s="10">
         <v>39</v>
       </c>
@@ -10327,7 +13660,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A54" s="10">
         <v>41</v>
       </c>
@@ -10353,7 +13686,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A55" s="10">
         <v>37</v>
       </c>
@@ -10379,7 +13712,7 @@
         <v>5.97</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A56" s="10">
         <v>42</v>
       </c>
@@ -10405,7 +13738,7 @@
         <v>6.13</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A57" s="10">
         <v>42</v>
       </c>
@@ -10431,7 +13764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A58" s="10">
         <v>44</v>
       </c>
@@ -10457,7 +13790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A59" s="10">
         <v>46</v>
       </c>
@@ -10483,7 +13816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A60" s="10">
         <v>46</v>
       </c>
@@ -10509,7 +13842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A61" s="10">
         <v>47</v>
       </c>
@@ -10535,7 +13868,7 @@
         <v>2.4700000000000002</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A62" s="10">
         <v>49</v>
       </c>
@@ -10561,7 +13894,7 @@
         <v>3.87</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A63" s="10">
         <v>49</v>
       </c>
@@ -10587,7 +13920,7 @@
         <v>5.73</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A64" s="10">
         <v>51</v>
       </c>
@@ -10613,7 +13946,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A65" s="10">
         <v>52</v>
       </c>
@@ -10639,7 +13972,7 @@
         <v>2.2599999999999998</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A66" s="10">
         <v>49</v>
       </c>
@@ -10665,7 +13998,7 @@
         <v>12.2</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A67" s="10">
         <v>34</v>
       </c>
@@ -10691,7 +14024,7 @@
         <v>10.14</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A68" s="10">
         <v>57</v>
       </c>
@@ -10717,7 +14050,7 @@
         <v>4.4400000000000004</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A69" s="10">
         <v>56</v>
       </c>
@@ -10743,7 +14076,7 @@
         <v>3.93</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A70" s="10">
         <v>58</v>
       </c>
@@ -10769,7 +14102,7 @@
         <v>3.29</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A71" s="10">
         <v>58</v>
       </c>
@@ -10795,7 +14128,7 @@
         <v>1.02</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A72" s="10">
         <v>60</v>
       </c>
@@ -10821,7 +14154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A73" s="10">
         <v>60</v>
       </c>
@@ -10847,7 +14180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A74" s="10">
         <v>62</v>
       </c>
@@ -10873,7 +14206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A75" s="10">
         <v>64</v>
       </c>
@@ -10899,7 +14232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A76" s="10">
         <v>58</v>
       </c>
@@ -10922,7 +14255,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A77" s="10">
         <v>103</v>
       </c>
@@ -10945,7 +14278,7 @@
         <v>2.15</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A78" s="10">
         <v>103</v>
       </c>
@@ -10968,7 +14301,7 @@
         <v>2.79</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A79" s="10">
         <v>103</v>
       </c>
@@ -10991,7 +14324,7 @@
         <v>8.18</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A80" s="10">
         <v>100</v>
       </c>
@@ -11014,7 +14347,7 @@
         <v>8.1199999999999992</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A81" s="10">
         <v>100</v>
       </c>
@@ -11037,7 +14370,7 @@
         <v>5.23</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A82" s="10">
         <v>100</v>
       </c>
@@ -11063,7 +14396,7 @@
         <v>8.98</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A83" s="10">
         <v>89</v>
       </c>
@@ -11089,7 +14422,7 @@
         <v>3.56</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A84" s="10">
         <v>90</v>
       </c>
@@ -11115,7 +14448,7 @@
         <v>2.72</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A85" s="10">
         <v>90</v>
       </c>
@@ -11141,7 +14474,7 @@
         <v>3.47</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A86" s="10">
         <v>90</v>
       </c>
@@ -11167,7 +14500,7 @@
         <v>6.02</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A87" s="10">
         <v>98</v>
       </c>
@@ -11193,7 +14526,7 @@
         <v>1.1399999999999999</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A88" s="10">
         <v>98</v>
       </c>
@@ -11219,7 +14552,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="89" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A89" s="10">
         <v>98</v>
       </c>
@@ -11245,7 +14578,7 @@
         <v>1.07</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A90" s="10">
         <v>96</v>
       </c>
@@ -11271,7 +14604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A91" s="10">
         <v>96</v>
       </c>
@@ -11297,7 +14630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A92" s="10">
         <v>92</v>
       </c>
@@ -11323,7 +14656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A93" s="10">
         <v>94</v>
       </c>
@@ -11349,7 +14682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A94" s="10">
         <v>88</v>
       </c>
@@ -11375,7 +14708,7 @@
         <v>6.73</v>
       </c>
     </row>
-    <row r="95" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A95" s="10">
         <v>87</v>
       </c>
@@ -11401,7 +14734,7 @@
         <v>4.07</v>
       </c>
     </row>
-    <row r="96" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A96" s="10">
         <v>84</v>
       </c>
@@ -11427,7 +14760,7 @@
         <v>2.66</v>
       </c>
     </row>
-    <row r="97" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A97" s="10">
         <v>84</v>
       </c>
@@ -11453,7 +14786,7 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="98" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A98" s="10">
         <v>84</v>
       </c>
@@ -11479,7 +14812,7 @@
         <v>12.51</v>
       </c>
     </row>
-    <row r="99" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A99" s="10">
         <v>71</v>
       </c>
@@ -11505,7 +14838,7 @@
         <v>3.87</v>
       </c>
     </row>
-    <row r="100" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A100" s="10">
         <v>72</v>
       </c>
@@ -11531,7 +14864,7 @@
         <v>3.22</v>
       </c>
     </row>
-    <row r="101" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A101" s="10">
         <v>72</v>
       </c>
@@ -11557,7 +14890,7 @@
         <v>3.32</v>
       </c>
     </row>
-    <row r="102" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A102" s="10">
         <v>72</v>
       </c>
@@ -11583,7 +14916,7 @@
         <v>4.62</v>
       </c>
     </row>
-    <row r="103" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A103" s="10">
         <v>75</v>
       </c>
@@ -11609,7 +14942,7 @@
         <v>3.73</v>
       </c>
     </row>
-    <row r="104" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A104" s="10">
         <v>76</v>
       </c>
@@ -11635,7 +14968,7 @@
         <v>2.4500000000000002</v>
       </c>
     </row>
-    <row r="105" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A105" s="10">
         <v>76</v>
       </c>
@@ -11661,7 +14994,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="106" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A106" s="10">
         <v>83</v>
       </c>
@@ -11687,7 +15020,7 @@
         <v>3.16</v>
       </c>
     </row>
-    <row r="107" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A107" s="10">
         <v>81</v>
       </c>
@@ -11713,7 +15046,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="108" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A108" s="10">
         <v>76</v>
       </c>
@@ -11739,7 +15072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A109" s="10">
         <v>78</v>
       </c>
@@ -11765,7 +15098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A110" s="10">
         <v>81</v>
       </c>
@@ -11791,7 +15124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A111" s="10">
         <v>79</v>
       </c>
@@ -11817,7 +15150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A112" s="10">
         <v>70</v>
       </c>
@@ -11843,7 +15176,7 @@
         <v>9.42</v>
       </c>
     </row>
-    <row r="113" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A113" s="10">
         <v>69</v>
       </c>
@@ -11869,7 +15202,7 @@
         <v>5.12</v>
       </c>
     </row>
-    <row r="114" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A114" s="10">
         <v>67</v>
       </c>
@@ -11895,7 +15228,7 @@
         <v>7.34</v>
       </c>
     </row>
-    <row r="115" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A115" s="10">
         <v>67</v>
       </c>
@@ -11921,7 +15254,7 @@
         <v>7.68</v>
       </c>
     </row>
-    <row r="116" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A116" s="10">
         <v>66</v>
       </c>
@@ -11947,7 +15280,7 @@
         <v>2.88</v>
       </c>
     </row>
-    <row r="117" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A117" s="10">
         <v>59</v>
       </c>
@@ -11970,7 +15303,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="118" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A118" s="10">
         <v>105</v>
       </c>
@@ -11993,7 +15326,7 @@
         <v>10.57</v>
       </c>
     </row>
-    <row r="119" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A119" s="10">
         <v>107</v>
       </c>
@@ -12030,28 +15363,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7E56389-87BD-47C6-B7B6-9F6DF3DBF115}">
   <dimension ref="A1:T118"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="29.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="29.33203125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="29.33203125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="29.33203125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="12" customWidth="1"/>
     <col min="20" max="20" width="42" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" s="22" t="s">
         <v>22</v>
       </c>
@@ -12081,7 +15414,7 @@
       </c>
       <c r="T1" s="22"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -12137,7 +15470,7 @@
         <v>30.27305431189,77.99971899825</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -12193,7 +15526,7 @@
         <v>30.27306238983,77.99974442792</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -12249,7 +15582,7 @@
         <v>30.27305405946,77.99976898071</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -12305,7 +15638,7 @@
         <v>30.27312751843,77.99975787320</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -12361,7 +15694,7 @@
         <v>30.27320516314,77.99980772567</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -12417,7 +15750,7 @@
         <v>30.27317346141,77.99985286938</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -12473,7 +15806,7 @@
         <v>30.27323404610,77.99982627024</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -12529,7 +15862,7 @@
         <v>30.27318355882,77.99988882167</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -12585,7 +15918,7 @@
         <v>30.27318778698,77.99989401006</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -12641,7 +15974,7 @@
         <v>30.27318885401,77.99989570572</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -12697,7 +16030,7 @@
         <v>30.27319188193,77.99989888400</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -12753,7 +16086,7 @@
         <v>30.27324200475,77.99983486167</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -12809,7 +16142,7 @@
         <v>30.27325847475,77.99985264823</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -12865,7 +16198,7 @@
         <v>30.27331422562,77.99991104779</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -12921,7 +16254,7 @@
         <v>30.27327494033,77.99995897248</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -12977,7 +16310,7 @@
         <v>30.27335919456,77.99996140527</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -13033,7 +16366,7 @@
         <v>30.27332694192,78.00000486280</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -13089,7 +16422,7 @@
         <v>30.27337530644,77.99997880091</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -13145,7 +16478,7 @@
         <v>30.27332362500,78.00004375168</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -13201,7 +16534,7 @@
         <v>30.27332827882,78.00004871651</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -13257,7 +16590,7 @@
         <v>30.27332877874,78.00004927470</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -13313,7 +16646,7 @@
         <v>30.27333257033,78.00005327199</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -13369,7 +16702,7 @@
         <v>30.27338386376,77.99998803985</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -13425,7 +16758,7 @@
         <v>30.27341807112,78.00007092119</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -13481,7 +16814,7 @@
         <v>30.27337894374,78.00009138184</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -13537,7 +16870,7 @@
         <v>30.27347892218,77.99997875974</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -13593,7 +16926,7 @@
         <v>30.27348572332,78.00006829083</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -13649,7 +16982,7 @@
         <v>30.27346701687,78.00006962139</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -13705,7 +17038,7 @@
         <v>30.27350818999,78.00006682935</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -13761,7 +17094,7 @@
         <v>30.27356019146,77.99984410053</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -13817,7 +17150,7 @@
         <v>30.27356000729,77.99987423739</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -13873,7 +17206,7 @@
         <v>30.27351929710,77.99971929055</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -13929,7 +17262,7 @@
         <v>30.27355867685,77.99972045973</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -13985,7 +17318,7 @@
         <v>30.27349556675,77.99969002702</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -14041,7 +17374,7 @@
         <v>30.27346881021,77.99965703171</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>36</v>
       </c>
@@ -14097,7 +17430,7 @@
         <v>30.27346931508,77.99961727958</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>37</v>
       </c>
@@ -14153,7 +17486,7 @@
         <v>30.27337516305,77.99965750757</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>38</v>
       </c>
@@ -14209,7 +17542,7 @@
         <v>30.27337540940,77.99963306351</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>39</v>
       </c>
@@ -14265,7 +17598,7 @@
         <v>30.27337247724,77.99962256396</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>40</v>
       </c>
@@ -14321,7 +17654,7 @@
         <v>30.27336455458,77.99961830276</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>41</v>
       </c>
@@ -14377,7 +17710,7 @@
         <v>30.27332315540,77.99961757188</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>42</v>
       </c>
@@ -14433,7 +17766,7 @@
         <v>30.27332143572,77.99965828975</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>43</v>
       </c>
@@ -14489,7 +17822,7 @@
         <v>30.27332184619,77.99969234644</v>
       </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>44</v>
       </c>
@@ -14545,7 +17878,7 @@
         <v>30.27329715525,77.99969274542</v>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>45</v>
       </c>
@@ -14601,7 +17934,7 @@
         <v>30.27329431585,77.99969283701</v>
       </c>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>46</v>
       </c>
@@ -14657,7 +17990,7 @@
         <v>30.27326648189,77.99969298350</v>
       </c>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>47</v>
       </c>
@@ -14713,7 +18046,7 @@
         <v>30.27326634884,77.99965908953</v>
       </c>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <v>48</v>
       </c>
@@ -14769,7 +18102,7 @@
         <v>30.27324414092,77.99965941522</v>
       </c>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <v>49</v>
       </c>
@@ -14825,7 +18158,7 @@
         <v>30.27324168963,77.99969958550</v>
       </c>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>50</v>
       </c>
@@ -14881,7 +18214,7 @@
         <v>30.27319020430,77.99969842374</v>
       </c>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <v>51</v>
       </c>
@@ -14937,7 +18270,7 @@
         <v>30.27319053675,77.99967867090</v>
       </c>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <v>52</v>
       </c>
@@ -14993,7 +18326,7 @@
         <v>30.27319012213,77.99972192120</v>
       </c>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <v>53</v>
       </c>
@@ -15049,7 +18382,7 @@
         <v>30.27328680477,77.99981516332</v>
       </c>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <v>54</v>
       </c>
@@ -15105,7 +18438,7 @@
         <v>30.27338323513,77.99982334729</v>
       </c>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <v>55</v>
       </c>
@@ -15161,7 +18494,7 @@
         <v>30.27356091949,77.99961636728</v>
       </c>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <v>56</v>
       </c>
@@ -15217,7 +18550,7 @@
         <v>30.27358619244,77.99964504732</v>
       </c>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <v>57</v>
       </c>
@@ -15273,7 +18606,7 @@
         <v>30.27353318124,77.99958308077</v>
       </c>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <v>58</v>
       </c>
@@ -15329,7 +18662,7 @@
         <v>30.27358215324,77.99959243450</v>
       </c>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <v>59</v>
       </c>
@@ -15385,7 +18718,7 @@
         <v>30.27357581116,77.99958470939</v>
       </c>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <v>60</v>
       </c>
@@ -15441,7 +18774,7 @@
         <v>30.27360462097,77.99955196200</v>
       </c>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <v>61</v>
       </c>
@@ -15497,7 +18830,7 @@
         <v>30.27361049277,77.99955888799</v>
       </c>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <v>62</v>
       </c>
@@ -15553,7 +18886,7 @@
         <v>30.27361158545,77.99955981684</v>
       </c>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <v>63</v>
       </c>
@@ -15609,7 +18942,7 @@
         <v>30.27361668978,77.99956576221</v>
       </c>
     </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
         <v>64</v>
       </c>
@@ -15665,7 +18998,7 @@
         <v>30.27358794749,77.99959884698</v>
       </c>
     </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <v>65</v>
       </c>
@@ -15721,7 +19054,7 @@
         <v>30.27356135734,77.99956711085</v>
       </c>
     </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
         <v>66</v>
       </c>
@@ -15777,7 +19110,7 @@
         <v>30.27358038620,77.99954683648</v>
       </c>
     </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
         <v>67</v>
       </c>
@@ -15833,7 +19166,7 @@
         <v>30.27351374354,77.99950913042</v>
       </c>
     </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
         <v>68</v>
       </c>
@@ -15889,7 +19222,7 @@
         <v>30.27356190216,77.99945681656</v>
       </c>
     </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
         <v>69</v>
       </c>
@@ -15945,7 +19278,7 @@
         <v>30.27352964716,77.99941881096</v>
       </c>
     </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
         <v>70</v>
       </c>
@@ -16001,7 +19334,7 @@
         <v>30.27362367360,77.99938973058</v>
       </c>
     </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
         <v>71</v>
       </c>
@@ -16057,7 +19390,7 @@
         <v>30.27364778611,77.99936064454</v>
       </c>
     </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
         <v>72</v>
       </c>
@@ -16113,7 +19446,7 @@
         <v>30.27360333616,77.99936592898</v>
       </c>
     </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
         <v>73</v>
       </c>
@@ -16169,7 +19502,7 @@
         <v>30.27358089106,77.99938870486</v>
       </c>
     </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
         <v>74</v>
       </c>
@@ -16225,7 +19558,7 @@
         <v>30.27357408539,77.99933169582</v>
       </c>
     </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
         <v>75</v>
       </c>
@@ -16281,7 +19614,7 @@
         <v>30.27359805659,77.99930452389</v>
       </c>
     </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
         <v>76</v>
       </c>
@@ -16337,7 +19670,7 @@
         <v>30.27355861491,77.99931359019</v>
       </c>
     </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
         <v>77</v>
       </c>
@@ -16393,7 +19726,7 @@
         <v>30.27359571675,77.99927112980</v>
       </c>
     </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
         <v>78</v>
       </c>
@@ -16449,7 +19782,7 @@
         <v>30.27358950753,77.99926385545</v>
       </c>
     </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
         <v>79</v>
       </c>
@@ -16505,7 +19838,7 @@
         <v>30.27358805229,77.99926181527</v>
       </c>
     </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
         <v>80</v>
       </c>
@@ -16561,7 +19894,7 @@
         <v>30.27358130821,77.99925392245</v>
       </c>
     </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
         <v>81</v>
       </c>
@@ -16617,7 +19950,7 @@
         <v>30.27354407652,77.99929657542</v>
       </c>
     </row>
-    <row r="83" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
         <v>82</v>
       </c>
@@ -16673,7 +20006,7 @@
         <v>30.27355199038,77.99930583729</v>
       </c>
     </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
         <v>83</v>
       </c>
@@ -16729,7 +20062,7 @@
         <v>30.27353116151,77.99932819979</v>
       </c>
     </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
         <v>84</v>
       </c>
@@ -16785,7 +20118,7 @@
         <v>30.27370425476,77.99948058784</v>
       </c>
     </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
         <v>85</v>
       </c>
@@ -16841,7 +20174,7 @@
         <v>30.27372982713,77.99944979452</v>
       </c>
     </row>
-    <row r="87" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
         <v>86</v>
       </c>
@@ -16897,7 +20230,7 @@
         <v>30.27372134417,77.99949998111</v>
       </c>
     </row>
-    <row r="88" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
         <v>87</v>
       </c>
@@ -16953,7 +20286,7 @@
         <v>30.27374724507,77.99946996288</v>
       </c>
     </row>
-    <row r="89" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
         <v>88</v>
       </c>
@@ -17009,7 +20342,7 @@
         <v>30.27376497396,77.99954851982</v>
       </c>
     </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
         <v>89</v>
       </c>
@@ -17065,7 +20398,7 @@
         <v>30.27378738203,77.99952199140</v>
       </c>
     </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
         <v>90</v>
       </c>
@@ -17121,7 +20454,7 @@
         <v>30.27378232719,77.99956848660</v>
       </c>
     </row>
-    <row r="92" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
         <v>91</v>
       </c>
@@ -17177,7 +20510,7 @@
         <v>30.27376062406,77.99959448057</v>
       </c>
     </row>
-    <row r="93" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A93" s="2">
         <v>92</v>
       </c>
@@ -17233,7 +20566,7 @@
         <v>30.27382074673,77.99961269246</v>
       </c>
     </row>
-    <row r="94" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A94" s="2">
         <v>93</v>
       </c>
@@ -17289,7 +20622,7 @@
         <v>30.27385476558,77.99957305183</v>
       </c>
     </row>
-    <row r="95" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A95" s="2">
         <v>94</v>
       </c>
@@ -17345,7 +20678,7 @@
         <v>30.27386141101,77.99958069812</v>
       </c>
     </row>
-    <row r="96" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A96" s="2">
         <v>95</v>
       </c>
@@ -17401,7 +20734,7 @@
         <v>30.27386303961,77.99958250710</v>
       </c>
     </row>
-    <row r="97" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A97" s="2">
         <v>96</v>
       </c>
@@ -17457,7 +20790,7 @@
         <v>30.27386892053,77.99958927375</v>
       </c>
     </row>
-    <row r="98" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A98" s="2">
         <v>97</v>
       </c>
@@ -17513,7 +20846,7 @@
         <v>30.27383487366,77.99962894703</v>
       </c>
     </row>
-    <row r="99" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A99" s="2">
         <v>98</v>
       </c>
@@ -17569,7 +20902,7 @@
         <v>30.27382803489,77.99962107828</v>
       </c>
     </row>
-    <row r="100" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A100" s="2">
         <v>99</v>
       </c>
@@ -17625,7 +20958,7 @@
         <v>30.27380833402,77.99964533990</v>
       </c>
     </row>
-    <row r="101" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A101" s="2">
         <v>100</v>
       </c>
@@ -17681,7 +21014,7 @@
         <v>30.27370726324,77.99961396788</v>
       </c>
     </row>
-    <row r="102" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A102" s="2">
         <v>101</v>
       </c>
@@ -17737,7 +21070,7 @@
         <v>30.27374017692,77.99965293958</v>
       </c>
     </row>
-    <row r="103" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A103" s="2">
         <v>102</v>
       </c>
@@ -17793,7 +21126,7 @@
         <v>30.27365510669,77.99967310793</v>
       </c>
     </row>
-    <row r="104" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A104" s="2">
         <v>103</v>
       </c>
@@ -17849,7 +21182,7 @@
         <v>30.27360191911,77.99961429201</v>
       </c>
     </row>
-    <row r="105" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A105" s="2">
         <v>104</v>
       </c>
@@ -17905,7 +21238,7 @@
         <v>30.27362001836,77.99959418827</v>
       </c>
     </row>
-    <row r="106" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A106" s="2">
         <v>105</v>
       </c>
@@ -17961,7 +21294,7 @@
         <v>30.27343817324,78.00018286812</v>
       </c>
     </row>
-    <row r="107" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A107" s="2">
         <v>106</v>
       </c>
@@ -18017,7 +21350,7 @@
         <v>30.27343633727,78.00029288247</v>
       </c>
     </row>
-    <row r="108" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A108" s="2">
         <v>107</v>
       </c>
@@ -18073,7 +21406,7 @@
         <v>30.27342665568,78.00029266584</v>
       </c>
     </row>
-    <row r="109" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A109" s="2">
         <v>108</v>
       </c>
@@ -18129,7 +21462,7 @@
         <v>30.27351753031,77.99997504842</v>
       </c>
     </row>
-    <row r="110" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A110" s="2">
         <v>109</v>
       </c>
@@ -18185,7 +21518,7 @@
         <v>30.27351792788,77.99994900574</v>
       </c>
     </row>
-    <row r="111" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A111" s="2">
         <v>110</v>
       </c>
@@ -18241,7 +21574,7 @@
         <v>30.27348382495,77.99994794396</v>
       </c>
     </row>
-    <row r="112" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A112" s="2">
         <v>111</v>
       </c>
@@ -18297,7 +21630,7 @@
         <v>30.27348452930,77.99991761259</v>
       </c>
     </row>
-    <row r="113" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A113" s="2">
         <v>112</v>
       </c>
@@ -18353,7 +21686,7 @@
         <v>30.27348433132,77.99991366464</v>
       </c>
     </row>
-    <row r="114" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A114" s="2">
         <v>113</v>
       </c>
@@ -18409,7 +21742,7 @@
         <v>30.27348502940,77.99988274578</v>
       </c>
     </row>
-    <row r="115" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A115" s="2">
         <v>114</v>
       </c>
@@ -18465,7 +21798,7 @@
         <v>30.27351892249,77.99988377177</v>
       </c>
     </row>
-    <row r="116" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A116" s="2">
         <v>115</v>
       </c>
@@ -18521,7 +21854,7 @@
         <v>30.27351981007,77.99982569771</v>
       </c>
     </row>
-    <row r="117" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A117" s="2">
         <v>116</v>
       </c>
@@ -18577,7 +21910,7 @@
         <v>30.27354378323,77.99982685512</v>
       </c>
     </row>
-    <row r="118" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A118" s="2">
         <v>117</v>
       </c>
